--- a/data/hotels_by_city/Denver/Denver_shard_244.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_244.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="729">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33456-d85310-Reviews-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Sleep-Inn-Denver-Tech-Center.h168380.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,2099 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r580459958-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>33456</t>
+  </si>
+  <si>
+    <t>85310</t>
+  </si>
+  <si>
+    <t>580459958</t>
+  </si>
+  <si>
+    <t>05/15/2018</t>
+  </si>
+  <si>
+    <t>Good value and location, excellent breakfast</t>
+  </si>
+  <si>
+    <t>I spent one night at the end of April 2018 just arrived from Europe. The Sleep Inn Denver Tech is strategically located by the exit 197 of I 25, maybe 15 miles south of Denver downtown and easily reachable from DIA-DEN airport. For a good rate I was offered a clean room, somewhat smaller than the average motel room but big enough for 1-2 people, equipped with fridge, microwave, coffee maker, iron and ironing board. The wi fi was decent but I had a few problems using the PC located in the lobby. The staff I dealt with both at the check in and at the check out proved to be extremely kind and professional and I sincerely appreciated their approach. I was gladly advised to reach Denver downtown by RTD and I have to admit it's been a wise choice, definitely better than driving in the heavy traffic and spending money for parking. Just behind the motel parking lot is located a Target and it proved useful to get some stuff. The only flaw I detected concerns the I 25 and Arapahoe Street traffic noise. It's not unbearable but it's continuous and I reckon it could be cut out installing insulating window panes, for sure a considerable investment which would anyway result in a greater comfort and energy savings. Guest may count on a nice indoor swimming pool and are offered a complimentary warm breakfast that I do not...I spent one night at the end of April 2018 just arrived from Europe. The Sleep Inn Denver Tech is strategically located by the exit 197 of I 25, maybe 15 miles south of Denver downtown and easily reachable from DIA-DEN airport. For a good rate I was offered a clean room, somewhat smaller than the average motel room but big enough for 1-2 people, equipped with fridge, microwave, coffee maker, iron and ironing board. The wi fi was decent but I had a few problems using the PC located in the lobby. The staff I dealt with both at the check in and at the check out proved to be extremely kind and professional and I sincerely appreciated their approach. I was gladly advised to reach Denver downtown by RTD and I have to admit it's been a wise choice, definitely better than driving in the heavy traffic and spending money for parking. Just behind the motel parking lot is located a Target and it proved useful to get some stuff. The only flaw I detected concerns the I 25 and Arapahoe Street traffic noise. It's not unbearable but it's continuous and I reckon it could be cut out installing insulating window panes, for sure a considerable investment which would anyway result in a greater comfort and energy savings. Guest may count on a nice indoor swimming pool and are offered a complimentary warm breakfast that I do not hesitate to define superb. One of the best and most complete I ever had in motels of this level. Would I stay at the Sleep Inn Denver Tech again? Yes, without any doubt. Would I recomment it a friend? Yes without any doubtMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Abhishek A, General Manager at Sleep Inn Denver Tech Center, responded to this reviewResponded May 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2018</t>
+  </si>
+  <si>
+    <t>I spent one night at the end of April 2018 just arrived from Europe. The Sleep Inn Denver Tech is strategically located by the exit 197 of I 25, maybe 15 miles south of Denver downtown and easily reachable from DIA-DEN airport. For a good rate I was offered a clean room, somewhat smaller than the average motel room but big enough for 1-2 people, equipped with fridge, microwave, coffee maker, iron and ironing board. The wi fi was decent but I had a few problems using the PC located in the lobby. The staff I dealt with both at the check in and at the check out proved to be extremely kind and professional and I sincerely appreciated their approach. I was gladly advised to reach Denver downtown by RTD and I have to admit it's been a wise choice, definitely better than driving in the heavy traffic and spending money for parking. Just behind the motel parking lot is located a Target and it proved useful to get some stuff. The only flaw I detected concerns the I 25 and Arapahoe Street traffic noise. It's not unbearable but it's continuous and I reckon it could be cut out installing insulating window panes, for sure a considerable investment which would anyway result in a greater comfort and energy savings. Guest may count on a nice indoor swimming pool and are offered a complimentary warm breakfast that I do not...I spent one night at the end of April 2018 just arrived from Europe. The Sleep Inn Denver Tech is strategically located by the exit 197 of I 25, maybe 15 miles south of Denver downtown and easily reachable from DIA-DEN airport. For a good rate I was offered a clean room, somewhat smaller than the average motel room but big enough for 1-2 people, equipped with fridge, microwave, coffee maker, iron and ironing board. The wi fi was decent but I had a few problems using the PC located in the lobby. The staff I dealt with both at the check in and at the check out proved to be extremely kind and professional and I sincerely appreciated their approach. I was gladly advised to reach Denver downtown by RTD and I have to admit it's been a wise choice, definitely better than driving in the heavy traffic and spending money for parking. Just behind the motel parking lot is located a Target and it proved useful to get some stuff. The only flaw I detected concerns the I 25 and Arapahoe Street traffic noise. It's not unbearable but it's continuous and I reckon it could be cut out installing insulating window panes, for sure a considerable investment which would anyway result in a greater comfort and energy savings. Guest may count on a nice indoor swimming pool and are offered a complimentary warm breakfast that I do not hesitate to define superb. One of the best and most complete I ever had in motels of this level. Would I stay at the Sleep Inn Denver Tech again? Yes, without any doubt. Would I recomment it a friend? Yes without any doubtMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r579117162-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>579117162</t>
+  </si>
+  <si>
+    <t>05/09/2018</t>
+  </si>
+  <si>
+    <t>Strange bathroom setup</t>
+  </si>
+  <si>
+    <t>The room was small but clean, and the beds and pillows were very comfortable. The breakfast was okay. The biggest problem I had was with the way the bathroom was set up. The sink was outside of the bathroom. So you had to open the sliding pocket door after you used the toilet in order to wash your hands. I only hope the cleaning staff would sanitize the door daily or at least between guests. But somehow I doubt it.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Abhishek A, General Manager at Sleep Inn Denver Tech Center, responded to this reviewResponded May 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2018</t>
+  </si>
+  <si>
+    <t>The room was small but clean, and the beds and pillows were very comfortable. The breakfast was okay. The biggest problem I had was with the way the bathroom was set up. The sink was outside of the bathroom. So you had to open the sliding pocket door after you used the toilet in order to wash your hands. I only hope the cleaning staff would sanitize the door daily or at least between guests. But somehow I doubt it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r578407335-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>578407335</t>
+  </si>
+  <si>
+    <t>05/06/2018</t>
+  </si>
+  <si>
+    <t>Great value, excellent facilities and good breakfast, all in a relatively quiet cul-de-sac</t>
+  </si>
+  <si>
+    <t>While on a roadtrip across the US, we have stayed so far in about a dozen different budget hotels, usually for about 3 nights or longer. So it is with a solid basis for comparison that we can say this is a truly excellent choice of hotel. While the rooms are a little small, they are nevertheless modern &amp; clean. The hot breakfast provided, while limited in choices, is nevertheless satisfying with cereal, bread, toast, meat, waffles/pancake &amp; egg choices. And, if you want a little luxury at a budget rate, how about a small gym and indoor pool?The only negative is its general location to the east of Denver in the context of many attractions being to the west &amp; north. But if you have a car (and Lord help you if you don't in western USA!), the roads are excellent &amp; the extra travel distance is quickly covered.We don't often say this about a hotel, but Sleep Inn earns the accolade: We highly recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Abhishek A, General Manager at Sleep Inn Denver Tech Center, responded to this reviewResponded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2018</t>
+  </si>
+  <si>
+    <t>While on a roadtrip across the US, we have stayed so far in about a dozen different budget hotels, usually for about 3 nights or longer. So it is with a solid basis for comparison that we can say this is a truly excellent choice of hotel. While the rooms are a little small, they are nevertheless modern &amp; clean. The hot breakfast provided, while limited in choices, is nevertheless satisfying with cereal, bread, toast, meat, waffles/pancake &amp; egg choices. And, if you want a little luxury at a budget rate, how about a small gym and indoor pool?The only negative is its general location to the east of Denver in the context of many attractions being to the west &amp; north. But if you have a car (and Lord help you if you don't in western USA!), the roads are excellent &amp; the extra travel distance is quickly covered.We don't often say this about a hotel, but Sleep Inn earns the accolade: We highly recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r571479481-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>571479481</t>
+  </si>
+  <si>
+    <t>04/06/2018</t>
+  </si>
+  <si>
+    <t>Children's hospital stay</t>
+  </si>
+  <si>
+    <t>I wouldn't leave any star if I had a choice. We had a children's hospital stay and Since we checked in I've had issues. I asked for a room on the bottom level close to the door because I have three children. After having to tell them again at check in the had to upgrade my room to two Queens and I was smack in the middle of this hotel nowhere near the door. I paid $100 after taxes and got woken up at 3 am to cops at nabors. All day yesterday there was cops at the hotel. The heater worked but the AC only worked when it wanted to. We woke up sweating my kids head and back were even wet it was so hot. We were also very itchy.The cable cut in and out and said it was searching . Our free hot breakfast wasnt fresh it was frozen egg and sausage patties. the muffins tasted molded and freezer burnt. my kids didn't even like them.I'm very very disappointed in my stay and was not worth the money we paid. Bunch of creepers hereMoreShow less</t>
+  </si>
+  <si>
+    <t>Abhishek A, General Manager at Sleep Inn Denver Tech Center, responded to this reviewResponded April 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2018</t>
+  </si>
+  <si>
+    <t>I wouldn't leave any star if I had a choice. We had a children's hospital stay and Since we checked in I've had issues. I asked for a room on the bottom level close to the door because I have three children. After having to tell them again at check in the had to upgrade my room to two Queens and I was smack in the middle of this hotel nowhere near the door. I paid $100 after taxes and got woken up at 3 am to cops at nabors. All day yesterday there was cops at the hotel. The heater worked but the AC only worked when it wanted to. We woke up sweating my kids head and back were even wet it was so hot. We were also very itchy.The cable cut in and out and said it was searching . Our free hot breakfast wasnt fresh it was frozen egg and sausage patties. the muffins tasted molded and freezer burnt. my kids didn't even like them.I'm very very disappointed in my stay and was not worth the money we paid. Bunch of creepers hereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r570498701-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>570498701</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>very comfortable beds</t>
+  </si>
+  <si>
+    <t>This property is excellent.  We stayed three nights.  It was spotlessly clean and the breakfast was very nice for a Sleep Inn.  There is a variety of frozen dinners, etc.. if you don't want to eat out- a bit pricey.  Also available were beverages and necessary items.  The rooms were nice and clean, and the beds very comfortable.  The water in the sink was hot, but we never did get the shower past luke warm.  The TV service was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Abhishek A, General Manager at Sleep Inn Denver Tech Center, responded to this reviewResponded April 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2018</t>
+  </si>
+  <si>
+    <t>This property is excellent.  We stayed three nights.  It was spotlessly clean and the breakfast was very nice for a Sleep Inn.  There is a variety of frozen dinners, etc.. if you don't want to eat out- a bit pricey.  Also available were beverages and necessary items.  The rooms were nice and clean, and the beds very comfortable.  The water in the sink was hot, but we never did get the shower past luke warm.  The TV service was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r567333298-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>567333298</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>Decent</t>
+  </si>
+  <si>
+    <t>This hotel was decent for the price, nothing spectacular. The room was very small but clean! The indoor pool was a nice perk for the kids. Breakfast was pretty good, the woman running the breakfast area was wonderful! Very friendly and helpful. The man at the front desk was fine; again, nothing mentionable. MoreShow less</t>
+  </si>
+  <si>
+    <t>Abhishek A, General Manager at Sleep Inn Denver Tech Center, responded to this reviewResponded March 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2018</t>
+  </si>
+  <si>
+    <t>This hotel was decent for the price, nothing spectacular. The room was very small but clean! The indoor pool was a nice perk for the kids. Breakfast was pretty good, the woman running the breakfast area was wonderful! Very friendly and helpful. The man at the front desk was fine; again, nothing mentionable. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r563773413-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>563773413</t>
+  </si>
+  <si>
+    <t>03/02/2018</t>
+  </si>
+  <si>
+    <t>Sleep-in elsewhere!</t>
+  </si>
+  <si>
+    <t>I stayed at this place for four nights and my experience was maddening.  First of all, I had to provide paper work for my Service animal, which I have for mobility assistance due to 3 major back surgeries.  They assumed it was an emotional support dog and wouldn’t check me in until I gave them written documentation.   I carry a business card that has the law on it and the Government’s phone number along with what you can and can’t do and ask. They broke all the rules, but so do most of the gate Agents at American Airlines, which is why I do everything on-line. But this place was maddening and the reservation was prepaid. Finally I escorted my furry friend and loyal helper into the hotel at 1:00 am and they said oh, that’s ok. Upon check-out, I was taking luggage to my car and got locked out of the room. It was a minute after Noon. The only good thing about the place was the waffle iron that made awesome breakfast meals.  I was mainly miserable there!  MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Abhishek A, General Manager at Sleep Inn Denver Tech Center, responded to this reviewResponded March 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2018</t>
+  </si>
+  <si>
+    <t>I stayed at this place for four nights and my experience was maddening.  First of all, I had to provide paper work for my Service animal, which I have for mobility assistance due to 3 major back surgeries.  They assumed it was an emotional support dog and wouldn’t check me in until I gave them written documentation.   I carry a business card that has the law on it and the Government’s phone number along with what you can and can’t do and ask. They broke all the rules, but so do most of the gate Agents at American Airlines, which is why I do everything on-line. But this place was maddening and the reservation was prepaid. Finally I escorted my furry friend and loyal helper into the hotel at 1:00 am and they said oh, that’s ok. Upon check-out, I was taking luggage to my car and got locked out of the room. It was a minute after Noon. The only good thing about the place was the waffle iron that made awesome breakfast meals.  I was mainly miserable there!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r562334473-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>562334473</t>
+  </si>
+  <si>
+    <t>02/23/2018</t>
+  </si>
+  <si>
+    <t>Nice place for the price!</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights while getting family members moved from Southern California. Location was right near I-25 but we did not hear freeway noise on third floor. It took 3 tries to get us into a room with a working heater (it was 5F outside upon arrival), but the customer service was excellent; they bent over backwards to get us into a comfortable room.  We did not sample the pool, but other family members did and declared it "clean and not too warm". We wished they had a hot tub!  It's nearby to some restaurants, but we did not try any of them. The room itself was small-ish but just right for a couple. Breakfast was decent, but the biscuits &amp; gravy were lukewarm an hour after breakfast opened on the first day. We had to fly out on the 2nd day too early to see if there would be the same issue.  I'd stay here again if family did not have room for us!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Abhishek A, General Manager at Sleep Inn Denver Tech Center, responded to this reviewResponded February 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights while getting family members moved from Southern California. Location was right near I-25 but we did not hear freeway noise on third floor. It took 3 tries to get us into a room with a working heater (it was 5F outside upon arrival), but the customer service was excellent; they bent over backwards to get us into a comfortable room.  We did not sample the pool, but other family members did and declared it "clean and not too warm". We wished they had a hot tub!  It's nearby to some restaurants, but we did not try any of them. The room itself was small-ish but just right for a couple. Breakfast was decent, but the biscuits &amp; gravy were lukewarm an hour after breakfast opened on the first day. We had to fly out on the 2nd day too early to see if there would be the same issue.  I'd stay here again if family did not have room for us!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r550133921-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>550133921</t>
+  </si>
+  <si>
+    <t>12/29/2017</t>
+  </si>
+  <si>
+    <t>Sleepy comfortable stay</t>
+  </si>
+  <si>
+    <t>We decided to stay here after going to the Broadway musical Rent, and not wanting to drive back the the two hours to Fremont County. 
+Pros: Finding this place was fairly easy as it's practically right off Interstate 25 and at a cul-de-sac like location with surroundings hotels. The location is surprisingly quiet for being next to the interstate. Walking in, both of the night auditors greeted us and we were able to chat with them for a bit while being checked in. I was kinda surprised at how empty the hotel was compared to the others around it. Made me kinda nervous, but the room was very nice. The hotel hallways were creepy with what seemed like a long hallway and lights every now and then. Our room was comfortable walking in and we enjoyed the spacious living/sleeping area Even though the wallpaper was a little outdated, it was still fairly modern utilities. It was also clean, but I guess you'd expect it for having the hotel mostly empty.
+Cons: The location is a little isolated and honestly, if I were a single female, I probably would have gone somewhere else where there were more traffic going by. The bathroom was fairly small. It had pocket doors but the space is small. Not enough for two people to comfortably be there. The shower door wasn't set exactly on the hinges and therefore was always bent inwards a bit. Not...We decided to stay here after going to the Broadway musical Rent, and not wanting to drive back the the two hours to Fremont County. Pros: Finding this place was fairly easy as it's practically right off Interstate 25 and at a cul-de-sac like location with surroundings hotels. The location is surprisingly quiet for being next to the interstate. Walking in, both of the night auditors greeted us and we were able to chat with them for a bit while being checked in. I was kinda surprised at how empty the hotel was compared to the others around it. Made me kinda nervous, but the room was very nice. The hotel hallways were creepy with what seemed like a long hallway and lights every now and then. Our room was comfortable walking in and we enjoyed the spacious living/sleeping area Even though the wallpaper was a little outdated, it was still fairly modern utilities. It was also clean, but I guess you'd expect it for having the hotel mostly empty.Cons: The location is a little isolated and honestly, if I were a single female, I probably would have gone somewhere else where there were more traffic going by. The bathroom was fairly small. It had pocket doors but the space is small. Not enough for two people to comfortably be there. The shower door wasn't set exactly on the hinges and therefore was always bent inwards a bit. Not a huge deal, but enough to be annoying.Recommended? Yes, if your with someone else or you go during the peak season where the hotel is actually busy. But it's a quiet location if your looking for a quiet night's sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Abhishek A, General Manager at Sleep Inn Denver Tech Center, responded to this reviewResponded December 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 31, 2017</t>
+  </si>
+  <si>
+    <t>We decided to stay here after going to the Broadway musical Rent, and not wanting to drive back the the two hours to Fremont County. 
+Pros: Finding this place was fairly easy as it's practically right off Interstate 25 and at a cul-de-sac like location with surroundings hotels. The location is surprisingly quiet for being next to the interstate. Walking in, both of the night auditors greeted us and we were able to chat with them for a bit while being checked in. I was kinda surprised at how empty the hotel was compared to the others around it. Made me kinda nervous, but the room was very nice. The hotel hallways were creepy with what seemed like a long hallway and lights every now and then. Our room was comfortable walking in and we enjoyed the spacious living/sleeping area Even though the wallpaper was a little outdated, it was still fairly modern utilities. It was also clean, but I guess you'd expect it for having the hotel mostly empty.
+Cons: The location is a little isolated and honestly, if I were a single female, I probably would have gone somewhere else where there were more traffic going by. The bathroom was fairly small. It had pocket doors but the space is small. Not enough for two people to comfortably be there. The shower door wasn't set exactly on the hinges and therefore was always bent inwards a bit. Not...We decided to stay here after going to the Broadway musical Rent, and not wanting to drive back the the two hours to Fremont County. Pros: Finding this place was fairly easy as it's practically right off Interstate 25 and at a cul-de-sac like location with surroundings hotels. The location is surprisingly quiet for being next to the interstate. Walking in, both of the night auditors greeted us and we were able to chat with them for a bit while being checked in. I was kinda surprised at how empty the hotel was compared to the others around it. Made me kinda nervous, but the room was very nice. The hotel hallways were creepy with what seemed like a long hallway and lights every now and then. Our room was comfortable walking in and we enjoyed the spacious living/sleeping area Even though the wallpaper was a little outdated, it was still fairly modern utilities. It was also clean, but I guess you'd expect it for having the hotel mostly empty.Cons: The location is a little isolated and honestly, if I were a single female, I probably would have gone somewhere else where there were more traffic going by. The bathroom was fairly small. It had pocket doors but the space is small. Not enough for two people to comfortably be there. The shower door wasn't set exactly on the hinges and therefore was always bent inwards a bit. Not a huge deal, but enough to be annoying.Recommended? Yes, if your with someone else or you go during the peak season where the hotel is actually busy. But it's a quiet location if your looking for a quiet night's sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r527345413-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>527345413</t>
+  </si>
+  <si>
+    <t>09/25/2017</t>
+  </si>
+  <si>
+    <t>Great place worth the money</t>
+  </si>
+  <si>
+    <t>Booked this place online the pictures didn't do it justice thought it was just another "ok" hotel. The rooms were great very clean comfortable and the bathroom shower was pretty cool. Highly recommended place to stay and not break the bank MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2017</t>
+  </si>
+  <si>
+    <t>Booked this place online the pictures didn't do it justice thought it was just another "ok" hotel. The rooms were great very clean comfortable and the bathroom shower was pretty cool. Highly recommended place to stay and not break the bank More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r525623254-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>525623254</t>
+  </si>
+  <si>
+    <t>09/18/2017</t>
+  </si>
+  <si>
+    <t>Great for the price</t>
+  </si>
+  <si>
+    <t>I stayed only one night, but found this hotel to be very nice.  It was an easy location to find, just off of I-25.  The staff was very friendly and accommodating, the rooms were very clean. It really is a good place for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2017</t>
+  </si>
+  <si>
+    <t>I stayed only one night, but found this hotel to be very nice.  It was an easy location to find, just off of I-25.  The staff was very friendly and accommodating, the rooms were very clean. It really is a good place for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r520347639-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>520347639</t>
+  </si>
+  <si>
+    <t>09/01/2017</t>
+  </si>
+  <si>
+    <t>It was just OK.</t>
+  </si>
+  <si>
+    <t>This hotel was OK. Positives included the cleanliness and features of the room, which included a frig and microwave, and the generous check-out time, which was noon. However, I had specifically requested a room that was cooled prior to my arrival, but this was NOT done. The other dissatisfaction I experienced was the bar of guest soap. I broke out in a terrible rash that itched for hours. That wasn't soap - it was some kind of nasty detergent. Overall, I might stay again, but I would definitely bring my own soap!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2017</t>
+  </si>
+  <si>
+    <t>This hotel was OK. Positives included the cleanliness and features of the room, which included a frig and microwave, and the generous check-out time, which was noon. However, I had specifically requested a room that was cooled prior to my arrival, but this was NOT done. The other dissatisfaction I experienced was the bar of guest soap. I broke out in a terrible rash that itched for hours. That wasn't soap - it was some kind of nasty detergent. Overall, I might stay again, but I would definitely bring my own soap!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r505247835-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>505247835</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>I loved this place!</t>
+  </si>
+  <si>
+    <t>Comfortable, clean room. Great pool. Complimentary breakfast delicious. Nice folks at the desk. Attractive lobby. Great view of the  mountains and Denver as you drive into the hotel. The 225 close by. Lots of restaurants and stores nearby in safe neighborhood. I really enjoyed my stay here. Check out time at 12 (not at 11), and I really appreciated it.  24 hour complimentary coffee was a real plus! This place has class!. I'll be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Comfortable, clean room. Great pool. Complimentary breakfast delicious. Nice folks at the desk. Attractive lobby. Great view of the  mountains and Denver as you drive into the hotel. The 225 close by. Lots of restaurants and stores nearby in safe neighborhood. I really enjoyed my stay here. Check out time at 12 (not at 11), and I really appreciated it.  24 hour complimentary coffee was a real plus! This place has class!. I'll be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r500180550-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>500180550</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Bad pillows can make such a difference</t>
+  </si>
+  <si>
+    <t>First night here out of four nights, and I hardly got any sleep because of the bad pillows. They are more like half pillows, and way to soft. I've had this complaint before but some Choice Hotels just keep using them so that's why I don't use Choice very often.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>First night here out of four nights, and I hardly got any sleep because of the bad pillows. They are more like half pillows, and way to soft. I've had this complaint before but some Choice Hotels just keep using them so that's why I don't use Choice very often.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r496664559-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>496664559</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great front desk people </t>
+  </si>
+  <si>
+    <t>The reason that you are getting a rating of five is solely based on your presidential duo at the front desk. Madison and Clinton are great employees and made me feel very welcome. The room was excellent and very quiet. The only negative was the breakfast. It was OK, but not much variety, and the eggs and sausage were below average. Another positive is you were located very close to my new favorite restaurant, Greek to me.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>The reason that you are getting a rating of five is solely based on your presidential duo at the front desk. Madison and Clinton are great employees and made me feel very welcome. The room was excellent and very quiet. The only negative was the breakfast. It was OK, but not much variety, and the eggs and sausage were below average. Another positive is you were located very close to my new favorite restaurant, Greek to me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r494995275-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>494995275</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>A good night's stay</t>
+  </si>
+  <si>
+    <t>Nice, clean room. The only thing we saw was kleenex under the bed, but, the housekeepers were very friendly.. Also, the night desk clerk sure wasn't very friendly. Other guests bought ice cream from a small fridge in the front lobby. There were no spoons, and the clerk didn't seem too happy he had to hunt one down. Which made me change my mind as I also was looking at the ice cream. Didn't seem like he was happy to be there. Coffee for breakfast comes from a machine. Not as tasty as fresh brewed. The beds were great, very comfortable. Quiet place.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Nice, clean room. The only thing we saw was kleenex under the bed, but, the housekeepers were very friendly.. Also, the night desk clerk sure wasn't very friendly. Other guests bought ice cream from a small fridge in the front lobby. There were no spoons, and the clerk didn't seem too happy he had to hunt one down. Which made me change my mind as I also was looking at the ice cream. Didn't seem like he was happy to be there. Coffee for breakfast comes from a machine. Not as tasty as fresh brewed. The beds were great, very comfortable. Quiet place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r493848200-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>493848200</t>
+  </si>
+  <si>
+    <t>06/17/2017</t>
+  </si>
+  <si>
+    <t>Sleep Inn Denver Tech Center 9257 E Costilla Ave, Greenwood Village, CO 80112-3634</t>
+  </si>
+  <si>
+    <t>Last day of our 3 week Colorado trip and it was a fitting end. Very clean, good breakfast, comfy bed, good AC/heat unit and very friendly staff made this a great way to remember our last night. Great eats short distances away. Did I mention indoor pool that looked clean and inviting?MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Last day of our 3 week Colorado trip and it was a fitting end. Very clean, good breakfast, comfy bed, good AC/heat unit and very friendly staff made this a great way to remember our last night. Great eats short distances away. Did I mention indoor pool that looked clean and inviting?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r493757911-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>493757911</t>
+  </si>
+  <si>
+    <t>Without discount, this room is way over priced.</t>
+  </si>
+  <si>
+    <t>Not pleased, even with our discount.  I can't believe they get $289.00 for 3 people for the room we had. The beds are full size, so 2 tall and/or large adults could not fit in one bed.  We had three.  They don't have rollaways so we had to buy an air mattress for my son.   With the room being so small we were on top of each other.  There wasn't a bathtub, only a shower, which might indicate that it was a handicap room - which my brother and I would have found great, except there wasn't a rail on the wall to help you up from the toilet and the shower head was not hand held.  There was only one rail in the shower and it was vertical. There's not enough places to hang towels   The toilet stopped up our first night and when I called the desk they came and HANDED ME a plunger (I was insulted.  For the price I am paying, I'm supposed to plunge their toilet?)  The sink was so slow draining as to be stopped up too, but after being handed the plunger for the toilet, I was not going to tell them for fear they'd hand me a snake and expect me to take care of it.  The room, however,  such as it was, was nicely appointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Not pleased, even with our discount.  I can't believe they get $289.00 for 3 people for the room we had. The beds are full size, so 2 tall and/or large adults could not fit in one bed.  We had three.  They don't have rollaways so we had to buy an air mattress for my son.   With the room being so small we were on top of each other.  There wasn't a bathtub, only a shower, which might indicate that it was a handicap room - which my brother and I would have found great, except there wasn't a rail on the wall to help you up from the toilet and the shower head was not hand held.  There was only one rail in the shower and it was vertical. There's not enough places to hang towels   The toilet stopped up our first night and when I called the desk they came and HANDED ME a plunger (I was insulted.  For the price I am paying, I'm supposed to plunge their toilet?)  The sink was so slow draining as to be stopped up too, but after being handed the plunger for the toilet, I was not going to tell them for fear they'd hand me a snake and expect me to take care of it.  The room, however,  such as it was, was nicely appointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r471233538-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>471233538</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>Top notch amazing staff</t>
+  </si>
+  <si>
+    <t>We booked through Priceline and this was a hotel that was picked.. what a gem. When we first arrived we were greeted with a smile and the best service ever by Clinton. This kid is top notch and anyone lucky enough to have him as an employee is very fortunate this is coming from someone who owes her own small business. All night he was helping someone getting everything they needed he was even sprinting down the steps when he saw someone waiting at the desk after he delivered a blow up mattress to a room. The room were nice and clean. Breakfast was basic but had hot food also. The breakfast area could be a bit bigger as it was very full when we went to eat. I will defiantly stay here again!! Again Clinton went above and beyond what was expected of him and his service was greatly appreciated!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>We booked through Priceline and this was a hotel that was picked.. what a gem. When we first arrived we were greeted with a smile and the best service ever by Clinton. This kid is top notch and anyone lucky enough to have him as an employee is very fortunate this is coming from someone who owes her own small business. All night he was helping someone getting everything they needed he was even sprinting down the steps when he saw someone waiting at the desk after he delivered a blow up mattress to a room. The room were nice and clean. Breakfast was basic but had hot food also. The breakfast area could be a bit bigger as it was very full when we went to eat. I will defiantly stay here again!! Again Clinton went above and beyond what was expected of him and his service was greatly appreciated!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r470627220-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>470627220</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
+  </si>
+  <si>
+    <t>Nice for the price</t>
+  </si>
+  <si>
+    <t>This hotel had everything we were looking for. Free breakfast, pool, nice rooms, clean, and good location. Breakfast was typical free hotel breakfast but you can't complain since it's free. They made the bed, took out the trash, and changed out the towels for new ones everyday.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded March 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2017</t>
+  </si>
+  <si>
+    <t>This hotel had everything we were looking for. Free breakfast, pool, nice rooms, clean, and good location. Breakfast was typical free hotel breakfast but you can't complain since it's free. They made the bed, took out the trash, and changed out the towels for new ones everyday.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r470282726-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>470282726</t>
+  </si>
+  <si>
+    <t>03/26/2017</t>
+  </si>
+  <si>
+    <t>Comfortable stay</t>
+  </si>
+  <si>
+    <t>I am a female who travels solo. I felt comfortable and safe during my almost week-long stay:Pros: - Professional, accommodating staff provided terrific guest service- convenient, safe location- quiet - indoor pool  (which I did not use)- free breakfast til 9am (which I did not experience because I slept in every morning)- room and common area were nicely decorated and very clean - small fridge, microwave &amp; flat screen tv in room- many restaurants and shopping close by- large, walk in shower (this may be a con if you are hoping for a tub)Cons: - (this sounds trivial even as I write this, but) the many large, fluffy, white  pillows were way too soft for my taste. Target is down the street and I considered purchasing one or two firmer ones, which I actually should have done since I experienced neck &amp; shoulder pain.Overall I am satisfied and would stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>I am a female who travels solo. I felt comfortable and safe during my almost week-long stay:Pros: - Professional, accommodating staff provided terrific guest service- convenient, safe location- quiet - indoor pool  (which I did not use)- free breakfast til 9am (which I did not experience because I slept in every morning)- room and common area were nicely decorated and very clean - small fridge, microwave &amp; flat screen tv in room- many restaurants and shopping close by- large, walk in shower (this may be a con if you are hoping for a tub)Cons: - (this sounds trivial even as I write this, but) the many large, fluffy, white  pillows were way too soft for my taste. Target is down the street and I considered purchasing one or two firmer ones, which I actually should have done since I experienced neck &amp; shoulder pain.Overall I am satisfied and would stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r442177974-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>442177974</t>
+  </si>
+  <si>
+    <t>12/05/2016</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>My husband and I travel a lot ( leaving for Iceland this morning), so I'm very aware of how I expect a hotel/room should be.As you know, this is a Sleep Inn. Each time recently that we have stayed at a Sleep Inn, I have been impressed at how they are updating these hotels. This hotel is clean and updated. We are a Choice Privilege member, and this is the first time in a while that when we checked in, they welcomed us and presented us with a bottle of water and a small package of Cheese-It's! Nice. As we traveled towards our room on the third floor, (about 8pm), we saw one of the employees with a paint brush and container of paint, touching up the scrapes on the hallway walls! Impressive!Our room was, as I said clean. The bath/shower - clean. Bed comfortable as well as the pillows. Breakfast is average but the kitchen staff friendly and continuously filling the serving trays and wiping tables as guests departed. (Congrats to the woman cleaning who had shorter, blondish and brown hair. Nice job)!If I had a "ding", it would be that they used metal tongs for taking bread out of the toaster. I suggest that they get a pair of wood or plastic tongs.Would we stay here again? Definitely.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded December 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I travel a lot ( leaving for Iceland this morning), so I'm very aware of how I expect a hotel/room should be.As you know, this is a Sleep Inn. Each time recently that we have stayed at a Sleep Inn, I have been impressed at how they are updating these hotels. This hotel is clean and updated. We are a Choice Privilege member, and this is the first time in a while that when we checked in, they welcomed us and presented us with a bottle of water and a small package of Cheese-It's! Nice. As we traveled towards our room on the third floor, (about 8pm), we saw one of the employees with a paint brush and container of paint, touching up the scrapes on the hallway walls! Impressive!Our room was, as I said clean. The bath/shower - clean. Bed comfortable as well as the pillows. Breakfast is average but the kitchen staff friendly and continuously filling the serving trays and wiping tables as guests departed. (Congrats to the woman cleaning who had shorter, blondish and brown hair. Nice job)!If I had a "ding", it would be that they used metal tongs for taking bread out of the toaster. I suggest that they get a pair of wood or plastic tongs.Would we stay here again? Definitely.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r440747449-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>440747449</t>
+  </si>
+  <si>
+    <t>11/28/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice and clean for the price </t>
+  </si>
+  <si>
+    <t>The place is super nice and clean and some of the rooms have brand new mattresses. I was lucky enough to get one. The front desk clerk was super friendly and made me feel very welcome. It's right next door to Target, so it can be convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>The place is super nice and clean and some of the rooms have brand new mattresses. I was lucky enough to get one. The front desk clerk was super friendly and made me feel very welcome. It's right next door to Target, so it can be convenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r436253221-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>436253221</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>Close and not too far from Downtown</t>
+  </si>
+  <si>
+    <t>My wife and I spent 5 days at this hotel.  It is convenient to US 25 - in fact the front of the building is next to it.  You can ask for a quiet room and since the building is at a 90 degree angle to the highway you can easily avoid any traffic noise.  The free breakfast was above average and it's eating area is clean and well staffed.  The Inn is close to a number of restaurants which you can walk or drive to. The closest exit to US 25 is currently undergoing some construction and can be difficult (but not impossible) to maneuver through, especially, during rush hour.  The building is relatively new and has both a pool and exercise area.  The personnel at the front desk were quick to accommodate us whenever we had questions.  My wife and I both felt that for the daily expense that this was a good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I spent 5 days at this hotel.  It is convenient to US 25 - in fact the front of the building is next to it.  You can ask for a quiet room and since the building is at a 90 degree angle to the highway you can easily avoid any traffic noise.  The free breakfast was above average and it's eating area is clean and well staffed.  The Inn is close to a number of restaurants which you can walk or drive to. The closest exit to US 25 is currently undergoing some construction and can be difficult (but not impossible) to maneuver through, especially, during rush hour.  The building is relatively new and has both a pool and exercise area.  The personnel at the front desk were quick to accommodate us whenever we had questions.  My wife and I both felt that for the daily expense that this was a good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r410325814-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>410325814</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Never fails to meet expectations......</t>
+  </si>
+  <si>
+    <t>I learned my lesson last time trying to go with a cheaper hotel........Went back to Sleep Inn and had a pleasant stay. Right off I-25 exit, close to Target, Walmart, Starbucks and lots of Restaurants. Hotel was full, but staff was friendly and helpful. Breakfast was perfect for getting us going in the morning. We stayed 4 nights and had no complaints. I usually am in Denver 3-4 times a year, so I think I'll stick to this Hotel. Thanks staff!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded August 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2016</t>
+  </si>
+  <si>
+    <t>I learned my lesson last time trying to go with a cheaper hotel........Went back to Sleep Inn and had a pleasant stay. Right off I-25 exit, close to Target, Walmart, Starbucks and lots of Restaurants. Hotel was full, but staff was friendly and helpful. Breakfast was perfect for getting us going in the morning. We stayed 4 nights and had no complaints. I usually am in Denver 3-4 times a year, so I think I'll stick to this Hotel. Thanks staff!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r405750920-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>405750920</t>
+  </si>
+  <si>
+    <t>08/15/2016</t>
+  </si>
+  <si>
+    <t>A Good Location</t>
+  </si>
+  <si>
+    <t>As a review I had seen stated it looked like the Inn had been freshened up. We had a comfortable king size bed on second floor. There is an elevator near the lobby. View of Target next door but that isn't why I booked the room. The location was fairly central for our running around. This room had no tub which was fine for us. The shower was not the square shape and was a little roomier than one might think. Staff was friendly and the breakfast area was well taken care of. Staff taking care of this area did an above average job. Thank you. The pool was just off the breakfast area which seemed a unique location. Maybe just the best use of space they had available. Pool was not large and a depth of 3 to 5 feet. Just right for us. I did notice a few dead bugs in the pool. This was a nice place for the hot afternoon.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>As a review I had seen stated it looked like the Inn had been freshened up. We had a comfortable king size bed on second floor. There is an elevator near the lobby. View of Target next door but that isn't why I booked the room. The location was fairly central for our running around. This room had no tub which was fine for us. The shower was not the square shape and was a little roomier than one might think. Staff was friendly and the breakfast area was well taken care of. Staff taking care of this area did an above average job. Thank you. The pool was just off the breakfast area which seemed a unique location. Maybe just the best use of space they had available. Pool was not large and a depth of 3 to 5 feet. Just right for us. I did notice a few dead bugs in the pool. This was a nice place for the hot afternoon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r403437202-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>403437202</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>Comfort on a budget</t>
+  </si>
+  <si>
+    <t>Because we rely heavily on ratings for hotels as my husband and I are travelling the US from Australia...we chose this as always from recent reviews and can say we werent disappointed...comfortable and clean...smalll servicable toilet and shower...great WiFi ...2 minor things for us but nothing drastic ..we werent keen on breakfast ..only 2 choices of cereals .my husband ate neither..biscuits were very doughy ..not well cooked ....so we had our own the next 2 mornings....we had housekeeping came in and made the bed and replaced towels they did not vacuum the room ...as I said minor issues but did not affect our stay ...if we ever came back to Denver we would probably stay again ..MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded August 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2016</t>
+  </si>
+  <si>
+    <t>Because we rely heavily on ratings for hotels as my husband and I are travelling the US from Australia...we chose this as always from recent reviews and can say we werent disappointed...comfortable and clean...smalll servicable toilet and shower...great WiFi ...2 minor things for us but nothing drastic ..we werent keen on breakfast ..only 2 choices of cereals .my husband ate neither..biscuits were very doughy ..not well cooked ....so we had our own the next 2 mornings....we had housekeeping came in and made the bed and replaced towels they did not vacuum the room ...as I said minor issues but did not affect our stay ...if we ever came back to Denver we would probably stay again ..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r399767444-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>399767444</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel property</t>
+  </si>
+  <si>
+    <t>This was our first stay at this hotel in the Denver area.  It is centrally located and just about 15 minutes south of downtown.  We usually enjoy Sleep Inn's nationwide and this one did not disappoint.  It is very clean, cozy and contemporary.  Just remember, that Sleep Inn's usually have smaller rooms and only showers.  Overall - excellent choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>This was our first stay at this hotel in the Denver area.  It is centrally located and just about 15 minutes south of downtown.  We usually enjoy Sleep Inn's nationwide and this one did not disappoint.  It is very clean, cozy and contemporary.  Just remember, that Sleep Inn's usually have smaller rooms and only showers.  Overall - excellent choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r398180400-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>398180400</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>Good for the price.</t>
+  </si>
+  <si>
+    <t>Rooms are clean they have a great breakfast in the morning. The front desk is vey friendly. The housekeeping could be a bit friendlier they won't even say hi back to you or greet you. Parking lot is a dead end and is VERY TIGHT! other than that great place!MoreShow less</t>
+  </si>
+  <si>
+    <t>Rooms are clean they have a great breakfast in the morning. The front desk is vey friendly. The housekeeping could be a bit friendlier they won't even say hi back to you or greet you. Parking lot is a dead end and is VERY TIGHT! other than that great place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r397706478-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>397706478</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Good stay, Great staff</t>
+  </si>
+  <si>
+    <t>We stayed here for four nights. We were well pleased with the staff at check in and they were available to answer any questions we had. Our room was very clean and the beds were comfortable. One reviewer said there was a smell. The only smell we noticed was the deliciousness of breakfast each morning (and I am very sensitive to odors). Also there are two ice machines off of the lobby in the breakfast area. The machines worked well every time we got ice which was at least twice a day. We never had any problem parking and there are plenty of restaurants nearby. We never went out after dark but we felt perfectly safe whenever we entered or left the hotel. We would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for four nights. We were well pleased with the staff at check in and they were available to answer any questions we had. Our room was very clean and the beds were comfortable. One reviewer said there was a smell. The only smell we noticed was the deliciousness of breakfast each morning (and I am very sensitive to odors). Also there are two ice machines off of the lobby in the breakfast area. The machines worked well every time we got ice which was at least twice a day. We never had any problem parking and there are plenty of restaurants nearby. We never went out after dark but we felt perfectly safe whenever we entered or left the hotel. We would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r391925637-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>391925637</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miserable </t>
+  </si>
+  <si>
+    <t>We booked through Priceline and got ripped off really bad.  The hotel literally stinks.  The smell starts in the lobby and continues throughout the elevator and through the hallway.  It was almost unbearable.  We searched everywhere for an ice machine and found out other hallways were worse than ours.We paid 3 or 3 1/2 star prices for a miserable 1 star dump.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded July 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2016</t>
+  </si>
+  <si>
+    <t>We booked through Priceline and got ripped off really bad.  The hotel literally stinks.  The smell starts in the lobby and continues throughout the elevator and through the hallway.  It was almost unbearable.  We searched everywhere for an ice machine and found out other hallways were worse than ours.We paid 3 or 3 1/2 star prices for a miserable 1 star dump.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r390443995-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>390443995</t>
+  </si>
+  <si>
+    <t>07/08/2016</t>
+  </si>
+  <si>
+    <t>I would come back!</t>
+  </si>
+  <si>
+    <t>Called sometime ago and made reservations to attend an upcoming event in the area.  Hats off to the Director of Sales for sorting out the details and making accommodations.  Arrived and was checked in by staff with a smile and experience in making it a smooth check-in.  The room was clean, comfortable, and had all the right items for our needs.  A wide selection of Breakfast items made for a good start the days we were there and the pool was a nice  treat too after a long day walking.  Please give our regards to Holly, one of the Desk Clerks and all the rest of the staff.  They really made our stay enjoyable.  Another item worth mentioning is the computer and printer at the front area for use.  It worked, and worked well and like it was supposed to!  Was able to confirm our airline reservations and print boarding passes with no problems or issues.  And this was at 11:45PM!  All in all - a GREAT PLACE to stay and we would come back here again if ever in the area.  Thanks for helping to make our vacation one to remember!  You have a good business model for other hotels to learn by - keep doing what you are doing!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded July 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2016</t>
+  </si>
+  <si>
+    <t>Called sometime ago and made reservations to attend an upcoming event in the area.  Hats off to the Director of Sales for sorting out the details and making accommodations.  Arrived and was checked in by staff with a smile and experience in making it a smooth check-in.  The room was clean, comfortable, and had all the right items for our needs.  A wide selection of Breakfast items made for a good start the days we were there and the pool was a nice  treat too after a long day walking.  Please give our regards to Holly, one of the Desk Clerks and all the rest of the staff.  They really made our stay enjoyable.  Another item worth mentioning is the computer and printer at the front area for use.  It worked, and worked well and like it was supposed to!  Was able to confirm our airline reservations and print boarding passes with no problems or issues.  And this was at 11:45PM!  All in all - a GREAT PLACE to stay and we would come back here again if ever in the area.  Thanks for helping to make our vacation one to remember!  You have a good business model for other hotels to learn by - keep doing what you are doing!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r389720933-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>389720933</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>Incredibly Helpful Staff</t>
+  </si>
+  <si>
+    <t>We stayed here for one evening on July 2, 2016. We arrived around 6 pm and upon check in they gave us a bag with a bottled water and some crackers as well as a treat for the dog and bags to pick up her droppings. The lady at the front desk was extremely nice. We went to our room and after washing our hands noticed the sink not draining. We told the lady at the desk on our way to dinner and she apologized profusely and offered to switch rooms. We declined as we figured it was a slow drain. After dinner however,  we also noticed that the toilet didn't flush well. This time we did take her up on her offer to switch rooms. Once again she apologized profusely and thanked us numerous times for being understanding. We ended up being switched from a queen bed to a king. The rooms were clean, the bed was comfortable and the staff was helpful. We would stay here again in a heartbeat.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for one evening on July 2, 2016. We arrived around 6 pm and upon check in they gave us a bag with a bottled water and some crackers as well as a treat for the dog and bags to pick up her droppings. The lady at the front desk was extremely nice. We went to our room and after washing our hands noticed the sink not draining. We told the lady at the desk on our way to dinner and she apologized profusely and offered to switch rooms. We declined as we figured it was a slow drain. After dinner however,  we also noticed that the toilet didn't flush well. This time we did take her up on her offer to switch rooms. Once again she apologized profusely and thanked us numerous times for being understanding. We ended up being switched from a queen bed to a king. The rooms were clean, the bed was comfortable and the staff was helpful. We would stay here again in a heartbeat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r381873244-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>381873244</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t>CLEAN!   Great staff</t>
+  </si>
+  <si>
+    <t>We spent 4 nights.  All of the staff was friendly and professional, from Maria who kept the breakfast room well-stocked and spotless to Holly at the front desk who I observed being friendly and professional at all times.  Everything was spotless and problem-free.  Yes, its  bit noisy at times with doors slamming and people stomping around in the room above us, but that's common for a budget motel. The place was full on 3 of our 4 nights, but parking was not a problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded June 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2016</t>
+  </si>
+  <si>
+    <t>We spent 4 nights.  All of the staff was friendly and professional, from Maria who kept the breakfast room well-stocked and spotless to Holly at the front desk who I observed being friendly and professional at all times.  Everything was spotless and problem-free.  Yes, its  bit noisy at times with doors slamming and people stomping around in the room above us, but that's common for a budget motel. The place was full on 3 of our 4 nights, but parking was not a problem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r381251584-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>381251584</t>
+  </si>
+  <si>
+    <t>06/09/2016</t>
+  </si>
+  <si>
+    <t>clean room</t>
+  </si>
+  <si>
+    <t>Though the room was a little small, it was clean which is mostly what mattered.  I do like the "bigger" sleep inns but take what I can get.    Convenent location to airport.   Would stay again.  Parking was a little bit of a walk from the front door.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded June 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2016</t>
+  </si>
+  <si>
+    <t>Though the room was a little small, it was clean which is mostly what mattered.  I do like the "bigger" sleep inns but take what I can get.    Convenent location to airport.   Would stay again.  Parking was a little bit of a walk from the front door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r380710258-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>380710258</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Find somewhere else to stay!!</t>
+  </si>
+  <si>
+    <t>We had reservations made online for Choice Hotels.  We requested 1st floor facing parking lot so we could watch our truck.  When arrived at 6 pm they said they didn't have anything available.  The managers clothes were terrible!! he was popping out all the buttons.  Her belly was showing.  Looked terrible!  We had to try to find another hotel.  Upon leaving their were many suspicious people outside just sitting around at the extended stay next door.  Not a very safe hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded June 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2016</t>
+  </si>
+  <si>
+    <t>We had reservations made online for Choice Hotels.  We requested 1st floor facing parking lot so we could watch our truck.  When arrived at 6 pm they said they didn't have anything available.  The managers clothes were terrible!! he was popping out all the buttons.  Her belly was showing.  Looked terrible!  We had to try to find another hotel.  Upon leaving their were many suspicious people outside just sitting around at the extended stay next door.  Not a very safe hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r372349463-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>372349463</t>
+  </si>
+  <si>
+    <t>05/12/2016</t>
+  </si>
+  <si>
+    <t>Clean room and hotel</t>
+  </si>
+  <si>
+    <t>The queen bedroom was small, had a microwave and fridge, and a sink in the room. The bathroom was tiny. However, there were some unidentified drops on the toilet and when flushed initially, there were some particles floating around. The ac was incredibly loud and I had to turn it off for the night. I paid for a mountain view but got to see the back of an extended stay hotel. Would not pay more than 76$ per night.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded May 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2016</t>
+  </si>
+  <si>
+    <t>The queen bedroom was small, had a microwave and fridge, and a sink in the room. The bathroom was tiny. However, there were some unidentified drops on the toilet and when flushed initially, there were some particles floating around. The ac was incredibly loud and I had to turn it off for the night. I paid for a mountain view but got to see the back of an extended stay hotel. Would not pay more than 76$ per night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r372042551-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>372042551</t>
+  </si>
+  <si>
+    <t>05/11/2016</t>
+  </si>
+  <si>
+    <t>Small room!</t>
+  </si>
+  <si>
+    <t>The hotel is in a good area.  It is clean but the room was very small.  It had a nice shower, but no tub.  Breakfast was ok.  There were hot items besides waffles.  This is a great place for an overnight, but too small to spend much time in the room.  The pool is nice also.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is in a good area.  It is clean but the room was very small.  It had a nice shower, but no tub.  Breakfast was ok.  There were hot items besides waffles.  This is a great place for an overnight, but too small to spend much time in the room.  The pool is nice also.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r369122238-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>369122238</t>
+  </si>
+  <si>
+    <t>04/30/2016</t>
+  </si>
+  <si>
+    <t>Good value, great location</t>
+  </si>
+  <si>
+    <t>What I liked:  The hotel was reasonably clean, staff were friendly, and the breakfast was well done.  Has elevator to get up to 2nd and 3rd floor.  Never had a chance to swim but the indoor pool looked inviting...  The price is a good value, and the location is easy to get to from I25.What I didn't like:  Room was a little small, shower only bathroom, didn't get my room cleaned 2x days in a row.  1st time was my fault, left the do not disturb sign out.  2nd time there was no do not disturb sign and there was no slip under the door saying they had even stopped.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>What I liked:  The hotel was reasonably clean, staff were friendly, and the breakfast was well done.  Has elevator to get up to 2nd and 3rd floor.  Never had a chance to swim but the indoor pool looked inviting...  The price is a good value, and the location is easy to get to from I25.What I didn't like:  Room was a little small, shower only bathroom, didn't get my room cleaned 2x days in a row.  1st time was my fault, left the do not disturb sign out.  2nd time there was no do not disturb sign and there was no slip under the door saying they had even stopped.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r362426496-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>362426496</t>
+  </si>
+  <si>
+    <t>04/07/2016</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>Hotel in a good location just east of I-25. Tons of restaurants and shopping nearby. When you turn off of Clinton Rd. onto the hotel access road - be careful ! The access road, the circle where you turn into the parking lot, and the parking lot itself are in dire need of repaving - go slow or you will ruin your tires and / or suspension ! Hotel itself is pretty nice, quick check-in, express check-out. Asked for upper floor room, was assigned 2nd floor room instead. Lots of noise in the hallway until about 11 pm, but then quiet through the night. Got a good nights' sleep in a comfortable bed. Good breakfast in the morning. Price paid was OK, not great.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded April 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2016</t>
+  </si>
+  <si>
+    <t>Hotel in a good location just east of I-25. Tons of restaurants and shopping nearby. When you turn off of Clinton Rd. onto the hotel access road - be careful ! The access road, the circle where you turn into the parking lot, and the parking lot itself are in dire need of repaving - go slow or you will ruin your tires and / or suspension ! Hotel itself is pretty nice, quick check-in, express check-out. Asked for upper floor room, was assigned 2nd floor room instead. Lots of noise in the hallway until about 11 pm, but then quiet through the night. Got a good nights' sleep in a comfortable bed. Good breakfast in the morning. Price paid was OK, not great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r359903090-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>359903090</t>
+  </si>
+  <si>
+    <t>03/29/2016</t>
+  </si>
+  <si>
+    <t>Rudest treatment from any hotel I have ever had- especially from Manager: ABHISHE AGARWAL</t>
+  </si>
+  <si>
+    <t>I had a very sudden and unexpected loss of my boyfriend who died just 2 hours before I landed in Denver to visit him. I learned this news while staying in this hotel, resulting in the need to extend my stay for a week in order to deal with the arrangements to fly his body back to his mother in Vermont. The most tragic and unbelievable loss I have ever felt.
+I spoke with the Front Desk agent on the 4th night of my stay in order to confirm that I could stay in the same room until I could fly him home the following Monday. She took a few minutes, and explained to me that she had to "move some things around." After about 10-15 minutes, she let me know my room was extended for the time I needed, I signed a registration card, and she extended my key card for another 3 days.
+The next day, I had to meet with the Coroner at noon. The manager, ABHISHE AGARWAL called me around that time and demanded I return to get my things out of my room or he would call the cops on me. I explained I was not at the hotel, that I had extended my stay, and he clearly did not hear what I was saying. He offered a single bed room, however I had my daughter and my best friend who had flown out to...I had a very sudden and unexpected loss of my boyfriend who died just 2 hours before I landed in Denver to visit him. I learned this news while staying in this hotel, resulting in the need to extend my stay for a week in order to deal with the arrangements to fly his body back to his mother in Vermont. The most tragic and unbelievable loss I have ever felt.I spoke with the Front Desk agent on the 4th night of my stay in order to confirm that I could stay in the same room until I could fly him home the following Monday. She took a few minutes, and explained to me that she had to "move some things around." After about 10-15 minutes, she let me know my room was extended for the time I needed, I signed a registration card, and she extended my key card for another 3 days.The next day, I had to meet with the Coroner at noon. The manager, ABHISHE AGARWAL called me around that time and demanded I return to get my things out of my room or he would call the cops on me. I explained I was not at the hotel, that I had extended my stay, and he clearly did not hear what I was saying. He offered a single bed room, however I had my daughter and my best friend who had flown out to ensure I was not alone so we had to have 2 beds.He said I did not extend my stay, I must leave now, and that if i was not back in 20 minutes my belongings would be thrown out. I had all of my luggage, and all of my boyfriend's belongings in that room, and had to race from the Coroner's Office in order to return in time to ensure his things were not thrown away. I had not yet bought the luggage I needed to pack his things, so we were not prepared to leave in that short amount of time.I understand the agent who extended my stay must have made a mistake and overbooked my room, however to be threatened with what seemed like an eviction during this incredibly sad time for me was just absolutely unbearably heartbreaking. I have never written a review exposing this much about my personal life, however, I feel it is my only way to explain how I was treated when they knew the reason I was staying there, due to this unexpected loss. I will forever remember how horrible this made me feel, and how uncaring the management of this hotel has been. They have done nothing to show that they even have one ounce of human kindness or even guest service.Lori Jones, DOS, said I was told there was a large group. This was not the case-my room was extended by an agent on Thursday night.Thank you for reading this, and hopefully you will stay at another hotel if you would like to be treated like a human being.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>I had a very sudden and unexpected loss of my boyfriend who died just 2 hours before I landed in Denver to visit him. I learned this news while staying in this hotel, resulting in the need to extend my stay for a week in order to deal with the arrangements to fly his body back to his mother in Vermont. The most tragic and unbelievable loss I have ever felt.
+I spoke with the Front Desk agent on the 4th night of my stay in order to confirm that I could stay in the same room until I could fly him home the following Monday. She took a few minutes, and explained to me that she had to "move some things around." After about 10-15 minutes, she let me know my room was extended for the time I needed, I signed a registration card, and she extended my key card for another 3 days.
+The next day, I had to meet with the Coroner at noon. The manager, ABHISHE AGARWAL called me around that time and demanded I return to get my things out of my room or he would call the cops on me. I explained I was not at the hotel, that I had extended my stay, and he clearly did not hear what I was saying. He offered a single bed room, however I had my daughter and my best friend who had flown out to...I had a very sudden and unexpected loss of my boyfriend who died just 2 hours before I landed in Denver to visit him. I learned this news while staying in this hotel, resulting in the need to extend my stay for a week in order to deal with the arrangements to fly his body back to his mother in Vermont. The most tragic and unbelievable loss I have ever felt.I spoke with the Front Desk agent on the 4th night of my stay in order to confirm that I could stay in the same room until I could fly him home the following Monday. She took a few minutes, and explained to me that she had to "move some things around." After about 10-15 minutes, she let me know my room was extended for the time I needed, I signed a registration card, and she extended my key card for another 3 days.The next day, I had to meet with the Coroner at noon. The manager, ABHISHE AGARWAL called me around that time and demanded I return to get my things out of my room or he would call the cops on me. I explained I was not at the hotel, that I had extended my stay, and he clearly did not hear what I was saying. He offered a single bed room, however I had my daughter and my best friend who had flown out to ensure I was not alone so we had to have 2 beds.He said I did not extend my stay, I must leave now, and that if i was not back in 20 minutes my belongings would be thrown out. I had all of my luggage, and all of my boyfriend's belongings in that room, and had to race from the Coroner's Office in order to return in time to ensure his things were not thrown away. I had not yet bought the luggage I needed to pack his things, so we were not prepared to leave in that short amount of time.I understand the agent who extended my stay must have made a mistake and overbooked my room, however to be threatened with what seemed like an eviction during this incredibly sad time for me was just absolutely unbearably heartbreaking. I have never written a review exposing this much about my personal life, however, I feel it is my only way to explain how I was treated when they knew the reason I was staying there, due to this unexpected loss. I will forever remember how horrible this made me feel, and how uncaring the management of this hotel has been. They have done nothing to show that they even have one ounce of human kindness or even guest service.Lori Jones, DOS, said I was told there was a large group. This was not the case-my room was extended by an agent on Thursday night.Thank you for reading this, and hopefully you will stay at another hotel if you would like to be treated like a human being.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r346912092-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>346912092</t>
+  </si>
+  <si>
+    <t>02/11/2016</t>
+  </si>
+  <si>
+    <t>This is an OK motel, but not my favorite in the area.</t>
+  </si>
+  <si>
+    <t>This place is a little overpriced for what you get. While relatively cheap, you can do better only a few blocks away. My room was tiny compared to numerous other places I have stayed in the area. 
+It is also noisy due to people coming and going at all hours and not having enough brain power to realize they are not the only ones in the hotel. If you can't close your room door without allowing it to slam shut over and over again, go stay in your car at the local rest area. Morons! Be glad you didn't meet me in person. I promise you would have remembered it long after.
+The breakfast is OK. There is a pretty decent variety of items, but you can bet you are paying for your “free” breakfast with the higher room charge.
+For me the Internet worked pretty well. No complaints there.
+The rooms come with a very small LG television. This is a good brand that should provide a quality picture. HOWEVER, for some unknown reason this hotel subscribes to a company that provides an ANALOG picture. Nobody does this any longer. It is horrible. 
+Having lived for years in this area, I know you can unplug your cable, attach a cheap antenna and receive a perfect 1080p picture on 60 channels for free. Why pay a company for this pathetic, blurry  analog picture quality and a very sub par channel...This place is a little overpriced for what you get. While relatively cheap, you can do better only a few blocks away. My room was tiny compared to numerous other places I have stayed in the area. It is also noisy due to people coming and going at all hours and not having enough brain power to realize they are not the only ones in the hotel. If you can't close your room door without allowing it to slam shut over and over again, go stay in your car at the local rest area. Morons! Be glad you didn't meet me in person. I promise you would have remembered it long after.The breakfast is OK. There is a pretty decent variety of items, but you can bet you are paying for your “free” breakfast with the higher room charge.For me the Internet worked pretty well. No complaints there.The rooms come with a very small LG television. This is a good brand that should provide a quality picture. HOWEVER, for some unknown reason this hotel subscribes to a company that provides an ANALOG picture. Nobody does this any longer. It is horrible. Having lived for years in this area, I know you can unplug your cable, attach a cheap antenna and receive a perfect 1080p picture on 60 channels for free. Why pay a company for this pathetic, blurry  analog picture quality and a very sub par channel lineup? I am guessing they are well aware of this, as it is the only hotel I remember staying at with a sign saying, “Do not unplug the TV, or an alarm will go off.” Unacceptable!While I see many people are not happy with the front desk staff, I had no problem with them at all. In fact one young lady went out of her way to be helpful. My room was clean also, just way too small. I did not use the indoor pool, so no comment on that. There are also hotels in this very area, that offer incredible views. This one had nothing and in fact if you are claustrophobic, it was like being in a dark tomb. I did stay here for 6 days, so it wasn't really bad. I will just say that there are better choices for less money in very close proximity to the Sleep Inn. I like being able to look out the window and see the majestic Colorado Rockies or even get to watch all the planes take off and land at the nearby Centennial Airport. If you want that, this is NOT the place.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded February 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2016</t>
+  </si>
+  <si>
+    <t>This place is a little overpriced for what you get. While relatively cheap, you can do better only a few blocks away. My room was tiny compared to numerous other places I have stayed in the area. 
+It is also noisy due to people coming and going at all hours and not having enough brain power to realize they are not the only ones in the hotel. If you can't close your room door without allowing it to slam shut over and over again, go stay in your car at the local rest area. Morons! Be glad you didn't meet me in person. I promise you would have remembered it long after.
+The breakfast is OK. There is a pretty decent variety of items, but you can bet you are paying for your “free” breakfast with the higher room charge.
+For me the Internet worked pretty well. No complaints there.
+The rooms come with a very small LG television. This is a good brand that should provide a quality picture. HOWEVER, for some unknown reason this hotel subscribes to a company that provides an ANALOG picture. Nobody does this any longer. It is horrible. 
+Having lived for years in this area, I know you can unplug your cable, attach a cheap antenna and receive a perfect 1080p picture on 60 channels for free. Why pay a company for this pathetic, blurry  analog picture quality and a very sub par channel...This place is a little overpriced for what you get. While relatively cheap, you can do better only a few blocks away. My room was tiny compared to numerous other places I have stayed in the area. It is also noisy due to people coming and going at all hours and not having enough brain power to realize they are not the only ones in the hotel. If you can't close your room door without allowing it to slam shut over and over again, go stay in your car at the local rest area. Morons! Be glad you didn't meet me in person. I promise you would have remembered it long after.The breakfast is OK. There is a pretty decent variety of items, but you can bet you are paying for your “free” breakfast with the higher room charge.For me the Internet worked pretty well. No complaints there.The rooms come with a very small LG television. This is a good brand that should provide a quality picture. HOWEVER, for some unknown reason this hotel subscribes to a company that provides an ANALOG picture. Nobody does this any longer. It is horrible. Having lived for years in this area, I know you can unplug your cable, attach a cheap antenna and receive a perfect 1080p picture on 60 channels for free. Why pay a company for this pathetic, blurry  analog picture quality and a very sub par channel lineup? I am guessing they are well aware of this, as it is the only hotel I remember staying at with a sign saying, “Do not unplug the TV, or an alarm will go off.” Unacceptable!While I see many people are not happy with the front desk staff, I had no problem with them at all. In fact one young lady went out of her way to be helpful. My room was clean also, just way too small. I did not use the indoor pool, so no comment on that. There are also hotels in this very area, that offer incredible views. This one had nothing and in fact if you are claustrophobic, it was like being in a dark tomb. I did stay here for 6 days, so it wasn't really bad. I will just say that there are better choices for less money in very close proximity to the Sleep Inn. I like being able to look out the window and see the majestic Colorado Rockies or even get to watch all the planes take off and land at the nearby Centennial Airport. If you want that, this is NOT the place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r342658347-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>342658347</t>
+  </si>
+  <si>
+    <t>01/25/2016</t>
+  </si>
+  <si>
+    <t>Ehh...Stayed at Worse.</t>
+  </si>
+  <si>
+    <t>The price is great. The rooms are very small. When we stayed someone was being evicted and had items everywhere outside. The front desk was not very friendly. They also forgot to mention that the hotel is under construction. I could not sleep at all due to the people next door getting busy until 4am. When their bed moved, our bed moved and felt like the headboard was coming  off the wall! We wont be back as there are plenty more hotels in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded January 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2016</t>
+  </si>
+  <si>
+    <t>The price is great. The rooms are very small. When we stayed someone was being evicted and had items everywhere outside. The front desk was not very friendly. They also forgot to mention that the hotel is under construction. I could not sleep at all due to the people next door getting busy until 4am. When their bed moved, our bed moved and felt like the headboard was coming  off the wall! We wont be back as there are plenty more hotels in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r340059726-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>340059726</t>
+  </si>
+  <si>
+    <t>01/14/2016</t>
+  </si>
+  <si>
+    <t>Nicely renovated, great value, convenient</t>
+  </si>
+  <si>
+    <t>Stayed her for a night during a recent business trip up in the high country.  I chose it because of it's location and the price...which was basically $70 for a single room with a queen bed.  The hotel is almost completely renovated (except for 1st flow which is being carpeted now) it is smoke free, allows pets and offers a hot breakfast.  Remarkably for a budget hotel it also has a pool and a fitness center (ok it's only a treadmill and an elliptical, but it's something!) It also offers in room coffee, a desk with a good chair for work, an ironing board and iron and some really good toiletries.  The bed was very comfortable and there was an assortment of pillows.  Also a mini frog and a microwave.  All for $70! (AARP rate) Staff was friendly, helpful and accommodating.  Only downside?  it is right on I 25 south of I 225 and there is a bit more traffic noise than I am used to but the fan on the HVAC unit drowned it out as a white noise generator.  Very convenient to restaurants, coffee, and shopping in Greenwood Village area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed her for a night during a recent business trip up in the high country.  I chose it because of it's location and the price...which was basically $70 for a single room with a queen bed.  The hotel is almost completely renovated (except for 1st flow which is being carpeted now) it is smoke free, allows pets and offers a hot breakfast.  Remarkably for a budget hotel it also has a pool and a fitness center (ok it's only a treadmill and an elliptical, but it's something!) It also offers in room coffee, a desk with a good chair for work, an ironing board and iron and some really good toiletries.  The bed was very comfortable and there was an assortment of pillows.  Also a mini frog and a microwave.  All for $70! (AARP rate) Staff was friendly, helpful and accommodating.  Only downside?  it is right on I 25 south of I 225 and there is a bit more traffic noise than I am used to but the fan on the HVAC unit drowned it out as a white noise generator.  Very convenient to restaurants, coffee, and shopping in Greenwood Village area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r337639732-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>337639732</t>
+  </si>
+  <si>
+    <t>01/05/2016</t>
+  </si>
+  <si>
+    <t>Average place</t>
+  </si>
+  <si>
+    <t>This was an average hotel to stay in. Had an indoor pool that was great for the kids,the breakfast was small and by 8:30 most everything was gone and not restocked. Elevator was also down and being on a third floor that's bit of an inconvience with luggage an kids and only stairs. All in all its an average place for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded January 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 6, 2016</t>
+  </si>
+  <si>
+    <t>This was an average hotel to stay in. Had an indoor pool that was great for the kids,the breakfast was small and by 8:30 most everything was gone and not restocked. Elevator was also down and being on a third floor that's bit of an inconvience with luggage an kids and only stairs. All in all its an average place for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r333566636-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>333566636</t>
+  </si>
+  <si>
+    <t>12/17/2015</t>
+  </si>
+  <si>
+    <t>VERY pleasant surprise</t>
+  </si>
+  <si>
+    <t>Booked the room mostly on price, and had never stayed at a Sleep Inn before, but this turned out to be a great place to stay. Room was excellent, from the bed to all the little amenities, such as a mini-fridge. Clean and quiet. Could even open a window for fresh air. And the staff was very pleasant, too. Found two great places to eat nearby -- 3 Margaritas, which you drive past on the way in, and Brothers BBQ, a great little joint just across Arapahoe Road. Could not have been happier with the overall experience, and value.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded December 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2015</t>
+  </si>
+  <si>
+    <t>Booked the room mostly on price, and had never stayed at a Sleep Inn before, but this turned out to be a great place to stay. Room was excellent, from the bed to all the little amenities, such as a mini-fridge. Clean and quiet. Could even open a window for fresh air. And the staff was very pleasant, too. Found two great places to eat nearby -- 3 Margaritas, which you drive past on the way in, and Brothers BBQ, a great little joint just across Arapahoe Road. Could not have been happier with the overall experience, and value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r330427378-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>330427378</t>
+  </si>
+  <si>
+    <t>12/02/2015</t>
+  </si>
+  <si>
+    <t>Great location, very clean...</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for 2 nights while visiting Denver for her Birthday. The hotel is very clean and updated! Our room was very nice. Great customer service and the breakfast staff was very friendly and the food was good too. The location was nice, the interstate is close by, and there is a Light Rail station about 1 mile away. Plenty of shopping close by with lots of restaurants and movie theater. We will definitely stay here on another visit. MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded December 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2015</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for 2 nights while visiting Denver for her Birthday. The hotel is very clean and updated! Our room was very nice. Great customer service and the breakfast staff was very friendly and the food was good too. The location was nice, the interstate is close by, and there is a Light Rail station about 1 mile away. Plenty of shopping close by with lots of restaurants and movie theater. We will definitely stay here on another visit. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r325612538-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>325612538</t>
+  </si>
+  <si>
+    <t>11/09/2015</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>I stayed here when I was touring University Colorado - Colorado Springs, but was staying west of Denver. It was perfect and right off the highway. The breakfast was decent, but the beds were great and the service was friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>I stayed here when I was touring University Colorado - Colorado Springs, but was staying west of Denver. It was perfect and right off the highway. The breakfast was decent, but the beds were great and the service was friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r314160691-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>314160691</t>
+  </si>
+  <si>
+    <t>09/27/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel on the Canal</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel for 2 nights.  No complaints at all.  Front desk girl extremely friendly and fast check in.  Room was clean and bed comfortable with fridge and microwave.  The breakfast attendant was always cleaning and replenishing food.  Good variety to choose from every morning.  If I have any negative it would be they only have one washer and dryer.  Seems like everyone wanted to do laundry the same time I did.  If I ever returned to Denver I would stay here again.  Hotel is right off hwy 25.  Easy off and on highway.  You won't go wrong staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Lori J, Guest Relations Manager at Sleep Inn Denver Tech Center, responded to this reviewResponded October 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2015</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel for 2 nights.  No complaints at all.  Front desk girl extremely friendly and fast check in.  Room was clean and bed comfortable with fridge and microwave.  The breakfast attendant was always cleaning and replenishing food.  Good variety to choose from every morning.  If I have any negative it would be they only have one washer and dryer.  Seems like everyone wanted to do laundry the same time I did.  If I ever returned to Denver I would stay here again.  Hotel is right off hwy 25.  Easy off and on highway.  You won't go wrong staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r312717197-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>312717197</t>
+  </si>
+  <si>
+    <t>09/22/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel for the price</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at the Sleep Inn.  Be warned, they allow pets on the first floor, so expect some rooms with a smell if you are on the first floor.  WiFi worked fine and breakfast was good.  Staff was nice and rooms were clean and comfyMoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Guest Relations Manager at Sleep Inn Denver Tech Center, responded to this reviewResponded September 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2015</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at the Sleep Inn.  Be warned, they allow pets on the first floor, so expect some rooms with a smell if you are on the first floor.  WiFi worked fine and breakfast was good.  Staff was nice and rooms were clean and comfyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r311033778-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>311033778</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>Absolutely disgusted</t>
+  </si>
+  <si>
+    <t>My boyfriend and I were looking for a cheap hotel to stay in and unfortunately chose this hotel. It reaks of marijuna as soon as you walk in. The staff isn't very friendly. The free breakfast tastes terrible-stuck to yogurt the rest of our time there. We had "do not disturb" sign on the door and the general manager came walking in while I was half undressed asking how our services were. After that incident, we cut our time at the hotel short and moved to a different hotel. He never even apologized to me and kept making excuses for his mistake. The cleaning was minimal. Terrible wifi!! Overall TERRIBLE hotel!!MoreShow less</t>
+  </si>
+  <si>
+    <t>My boyfriend and I were looking for a cheap hotel to stay in and unfortunately chose this hotel. It reaks of marijuna as soon as you walk in. The staff isn't very friendly. The free breakfast tastes terrible-stuck to yogurt the rest of our time there. We had "do not disturb" sign on the door and the general manager came walking in while I was half undressed asking how our services were. After that incident, we cut our time at the hotel short and moved to a different hotel. He never even apologized to me and kept making excuses for his mistake. The cleaning was minimal. Terrible wifi!! Overall TERRIBLE hotel!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r294515859-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>294515859</t>
+  </si>
+  <si>
+    <t>07/31/2015</t>
+  </si>
+  <si>
+    <t>Evicted For Not Signing Registration Card the "Right" Way</t>
+  </si>
+  <si>
+    <t>I asked the manager how much he would charge me to stay for a week. He said $89 for the first three nights, and $79 for every night thereafter.  Since that lower rate was only about $7 per night more than a hotel nearby from which I had received a quotation for $71.99 per night, I went with Sleep Inn rather than move all my belongings after staying four nights on my points.  Well, after five or six more nights there, I noticed that he had been charging me $89 per night all along.  When I asked him about it, he claimed that he had never agreed to any rate lower than $89 per night.  But if that were true, I would not have stayed there in the first place and saved myself $17 per night, plus tax, by going to the other hotel.  Since I planned to be in the area for at least six weeks and possibly as long as five months, $17 per night, plus tax, could add up to thousands of dollars.  So what could I do?  I said something like, “Well, it’s my own fault for not getting anything in writing.  I guess I can't trust any of you people.”
+A few days later, my sister had a test for cancer, I was hit and cursed at by some persons on bikes while walking down the street, and while attempting to rent an apartment somebody...I asked the manager how much he would charge me to stay for a week. He said $89 for the first three nights, and $79 for every night thereafter.  Since that lower rate was only about $7 per night more than a hotel nearby from which I had received a quotation for $71.99 per night, I went with Sleep Inn rather than move all my belongings after staying four nights on my points.  Well, after five or six more nights there, I noticed that he had been charging me $89 per night all along.  When I asked him about it, he claimed that he had never agreed to any rate lower than $89 per night.  But if that were true, I would not have stayed there in the first place and saved myself $17 per night, plus tax, by going to the other hotel.  Since I planned to be in the area for at least six weeks and possibly as long as five months, $17 per night, plus tax, could add up to thousands of dollars.  So what could I do?  I said something like, “Well, it’s my own fault for not getting anything in writing.  I guess I can't trust any of you people.”A few days later, my sister had a test for cancer, I was hit and cursed at by some persons on bikes while walking down the street, and while attempting to rent an apartment somebody tried to rip me off for $2,600.  So when I got back to the Sleep Inn, I was exhausted and frustrated and just wanted to go to bed.  The front-desk clerk asked me to sign the registration card for another night's stay, so without saying a word I just scribbled my initials and signatures and went upstairs.  Within a few minutes, the manager banged on my door and screamed at me that if I did not come downstairs immediately and sign my name more clearly that he would call the cops and have me ejected from the property.  That’s right, he actually threatened to evict me from the hotel for not signing the registration card to his liking!  I said, “OK, fine,” and started to close the door in order to put down my glasses.  He would not let me close the door, and screamed at me even louder, "Right now! RIGHT…NOW!"  He had a manic look in his face, and I honestly thought that he might physically assault me at that point.  After I went downstairs and signed the card again, he told me to get out of the hotel anyway, by noon the next day, which I was more than happy to do.  I had NEVER been evicted from a hotel before in my life, and this was the worst treatment, bar none, that I have ever received from a hotel in more than thirty years of travel and staying in many hundreds of hotels.After my initial TripAdvisor® review, the hotel’s Guest Relations Manager admitted no bad behavior on their part, instead claiming that MY “behavior at the hotel was unacceptable and will not be tolerated” and falsely alleging that “comments you directed towards our staff were discriminating (sic) in nature.”  The only comment I made that they might have falsely interpreted, either intentionally or unintentionally, to be “discriminatory,” was when I told the manager that “I guess I can't trust any of you people.”  Well, I did not say and did not mean “any people of your race or culture,” I meant “any of you people at the front desk” or “any of you hotel people.”  I would have said the EXACT same thing to the manager REGARDLESS of his race or culture, but I guess when your hotel manager behaves in an utterly irrational and disgraceful manner, doesn’t have the character to admit it, and isn’t man enough to apologize, you have to smear the other person to make the manager look better.  What better way to do that than by accusing him of being a racist?MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>I asked the manager how much he would charge me to stay for a week. He said $89 for the first three nights, and $79 for every night thereafter.  Since that lower rate was only about $7 per night more than a hotel nearby from which I had received a quotation for $71.99 per night, I went with Sleep Inn rather than move all my belongings after staying four nights on my points.  Well, after five or six more nights there, I noticed that he had been charging me $89 per night all along.  When I asked him about it, he claimed that he had never agreed to any rate lower than $89 per night.  But if that were true, I would not have stayed there in the first place and saved myself $17 per night, plus tax, by going to the other hotel.  Since I planned to be in the area for at least six weeks and possibly as long as five months, $17 per night, plus tax, could add up to thousands of dollars.  So what could I do?  I said something like, “Well, it’s my own fault for not getting anything in writing.  I guess I can't trust any of you people.”
+A few days later, my sister had a test for cancer, I was hit and cursed at by some persons on bikes while walking down the street, and while attempting to rent an apartment somebody...I asked the manager how much he would charge me to stay for a week. He said $89 for the first three nights, and $79 for every night thereafter.  Since that lower rate was only about $7 per night more than a hotel nearby from which I had received a quotation for $71.99 per night, I went with Sleep Inn rather than move all my belongings after staying four nights on my points.  Well, after five or six more nights there, I noticed that he had been charging me $89 per night all along.  When I asked him about it, he claimed that he had never agreed to any rate lower than $89 per night.  But if that were true, I would not have stayed there in the first place and saved myself $17 per night, plus tax, by going to the other hotel.  Since I planned to be in the area for at least six weeks and possibly as long as five months, $17 per night, plus tax, could add up to thousands of dollars.  So what could I do?  I said something like, “Well, it’s my own fault for not getting anything in writing.  I guess I can't trust any of you people.”A few days later, my sister had a test for cancer, I was hit and cursed at by some persons on bikes while walking down the street, and while attempting to rent an apartment somebody tried to rip me off for $2,600.  So when I got back to the Sleep Inn, I was exhausted and frustrated and just wanted to go to bed.  The front-desk clerk asked me to sign the registration card for another night's stay, so without saying a word I just scribbled my initials and signatures and went upstairs.  Within a few minutes, the manager banged on my door and screamed at me that if I did not come downstairs immediately and sign my name more clearly that he would call the cops and have me ejected from the property.  That’s right, he actually threatened to evict me from the hotel for not signing the registration card to his liking!  I said, “OK, fine,” and started to close the door in order to put down my glasses.  He would not let me close the door, and screamed at me even louder, "Right now! RIGHT…NOW!"  He had a manic look in his face, and I honestly thought that he might physically assault me at that point.  After I went downstairs and signed the card again, he told me to get out of the hotel anyway, by noon the next day, which I was more than happy to do.  I had NEVER been evicted from a hotel before in my life, and this was the worst treatment, bar none, that I have ever received from a hotel in more than thirty years of travel and staying in many hundreds of hotels.After my initial TripAdvisor® review, the hotel’s Guest Relations Manager admitted no bad behavior on their part, instead claiming that MY “behavior at the hotel was unacceptable and will not be tolerated” and falsely alleging that “comments you directed towards our staff were discriminating (sic) in nature.”  The only comment I made that they might have falsely interpreted, either intentionally or unintentionally, to be “discriminatory,” was when I told the manager that “I guess I can't trust any of you people.”  Well, I did not say and did not mean “any people of your race or culture,” I meant “any of you people at the front desk” or “any of you hotel people.”  I would have said the EXACT same thing to the manager REGARDLESS of his race or culture, but I guess when your hotel manager behaves in an utterly irrational and disgraceful manner, doesn’t have the character to admit it, and isn’t man enough to apologize, you have to smear the other person to make the manager look better.  What better way to do that than by accusing him of being a racist?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r293716928-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>293716928</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Watch out for late night TV watching</t>
+  </si>
+  <si>
+    <t>I didn't like that pornographic channels started in the evening hours...I was browsing channels on the TV with my 10 year old son and we stumbled upon Cinemax and Showtime after hours adult movies. They should have a better filtering system in place for a family friendly hotel. Carpets smell bad and the breakfast was substandard, will never stay there again. Nice people but it is part of the Choice hotel chain. The bathroom exhaust fan was broken also, Room 200.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Guest Relations Manager at Sleep Inn Denver Tech Center, responded to this reviewResponded July 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2015</t>
+  </si>
+  <si>
+    <t>I didn't like that pornographic channels started in the evening hours...I was browsing channels on the TV with my 10 year old son and we stumbled upon Cinemax and Showtime after hours adult movies. They should have a better filtering system in place for a family friendly hotel. Carpets smell bad and the breakfast was substandard, will never stay there again. Nice people but it is part of the Choice hotel chain. The bathroom exhaust fan was broken also, Room 200.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r293303362-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>293303362</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>Great grandsons visit</t>
+  </si>
+  <si>
+    <t>Room very comfortable, awesome breakfast and great indoor swimming pool!  Very close to shopping and restaurants and especially DQ for ice cream for my great grandsons!!  Easy access.  Staff very friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Room very comfortable, awesome breakfast and great indoor swimming pool!  Very close to shopping and restaurants and especially DQ for ice cream for my great grandsons!!  Easy access.  Staff very friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r282882946-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>282882946</t>
+  </si>
+  <si>
+    <t>06/25/2015</t>
+  </si>
+  <si>
+    <t>Awesome location and staff</t>
+  </si>
+  <si>
+    <t>From Check in to Check out... from room cleanliness to common area cleanliness, this hotel is awesome. I have never seen a better worker or a constantly vigilent employee than Maria in the dining area.... constantly cleaning, constantly making sure that each guest is welcomed and assisted if needed.  As a matter of fact all employees at this location should be commended for their effort in making my stay awesome.  The owner's of this franchise should be emulated for their recognition of traveler comfort needs and their ability to "make it happen"!Thank you for your attention to detail.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded June 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2015</t>
+  </si>
+  <si>
+    <t>From Check in to Check out... from room cleanliness to common area cleanliness, this hotel is awesome. I have never seen a better worker or a constantly vigilent employee than Maria in the dining area.... constantly cleaning, constantly making sure that each guest is welcomed and assisted if needed.  As a matter of fact all employees at this location should be commended for their effort in making my stay awesome.  The owner's of this franchise should be emulated for their recognition of traveler comfort needs and their ability to "make it happen"!Thank you for your attention to detail.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r282475748-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>282475748</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
+    <t>Terrible management and service</t>
+  </si>
+  <si>
+    <t>The hotel management especially  the Indian manager lacked professionalism. I didn't find this hotel any better than the cheap motel. I stayed in 3 hotels in Denver tech center during my project for 3 months. Two other hotels were great but this one was absolutely terrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded June 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2015</t>
+  </si>
+  <si>
+    <t>The hotel management especially  the Indian manager lacked professionalism. I didn't find this hotel any better than the cheap motel. I stayed in 3 hotels in Denver tech center during my project for 3 months. Two other hotels were great but this one was absolutely terrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r281728115-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>281728115</t>
+  </si>
+  <si>
+    <t>06/20/2015</t>
+  </si>
+  <si>
+    <t>Pool issues</t>
+  </si>
+  <si>
+    <t>I wanted to enjoy going to the pool with my dad and sister but the chlorine level was so high that when I got my arm wet you could smell it as clear as day. Also, there was a younger woman who decided that she was going to try and skinny dip in the pool so she pulled down her. Bathing suits about half way then realized that my family was sitting outside of the pool area and then put the suit back on. It was uncalled for and very rude!MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Guest Relations Manager at Sleep Inn Denver Tech Center, responded to this reviewResponded June 24, 2015</t>
+  </si>
+  <si>
+    <t>I wanted to enjoy going to the pool with my dad and sister but the chlorine level was so high that when I got my arm wet you could smell it as clear as day. Also, there was a younger woman who decided that she was going to try and skinny dip in the pool so she pulled down her. Bathing suits about half way then realized that my family was sitting outside of the pool area and then put the suit back on. It was uncalled for and very rude!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r280496931-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>280496931</t>
+  </si>
+  <si>
+    <t>06/15/2015</t>
+  </si>
+  <si>
+    <t>Good Stay!!</t>
+  </si>
+  <si>
+    <t>I was a bit skeptical when I read some of the reviews but was pleasantly surprised. Spent 3 nights visiting Family. Shannon at the Front Desk was awesome, and all of the other Staff was very friendly as well. Breakfasts were adequate, however, the Dining area was very small and very crowded. Our Room was small but immaculate and beds were comfortable. Wifi was great &amp; the shower had consistent hot water  &amp; has great water pressure. I would stay here again. Great value!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded June 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2015</t>
+  </si>
+  <si>
+    <t>I was a bit skeptical when I read some of the reviews but was pleasantly surprised. Spent 3 nights visiting Family. Shannon at the Front Desk was awesome, and all of the other Staff was very friendly as well. Breakfasts were adequate, however, the Dining area was very small and very crowded. Our Room was small but immaculate and beds were comfortable. Wifi was great &amp; the shower had consistent hot water  &amp; has great water pressure. I would stay here again. Great value!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r280004567-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>280004567</t>
+  </si>
+  <si>
+    <t>06/13/2015</t>
+  </si>
+  <si>
+    <t>Overnighter</t>
+  </si>
+  <si>
+    <t>Needing an overnight hotel, this was a good choice. While the room was small, it was clean and the bed was comfortable. Close to restaurants but quite a distance from Denver International and downtown Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded June 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2015</t>
+  </si>
+  <si>
+    <t>Needing an overnight hotel, this was a good choice. While the room was small, it was clean and the bed was comfortable. Close to restaurants but quite a distance from Denver International and downtown Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r275401815-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>275401815</t>
+  </si>
+  <si>
+    <t>05/28/2015</t>
+  </si>
+  <si>
+    <t>Served it's purpose</t>
+  </si>
+  <si>
+    <t>This is a late review. I stayed at this hotel for 3 nights in April during Cannabis Cup weekend 2015. The beds were fine, yet I do not feel that the rooms with "double beds" are queen size beds, they are more on the "full" sized bed type. I booked 1 king bed, but when I made it to my room and realized I was given 2 double beds, I decided not to switch rooms, a move that I somewhat regretted once I went to sleep. The tv and cable selection were fine. It was clean and I had no problem with the wifi speed or connecting. The free breakfast was decent. Juice choices, gravy, coffee, fruit, biscuits, hard boiled eggs, waffles, sausage, toast and bagels. That is all I remember. Now, if you get down for breakfast on time, the gravy is not warm when breakfast begins. There is a microwave in the breakfast area which helps out a lot and got lots of use from myself and other hotel guests. The breakfast area is not big, it's not tiny, but not big at all. There is an adequate amount of free parking. The windows in my room opened, which is a touch that I like. I did not like the close proximity of the toilet and the shower, but maybe I am being picky about this. I also am not a fan of the sliding bathroom door. Also,...This is a late review. I stayed at this hotel for 3 nights in April during Cannabis Cup weekend 2015. The beds were fine, yet I do not feel that the rooms with "double beds" are queen size beds, they are more on the "full" sized bed type. I booked 1 king bed, but when I made it to my room and realized I was given 2 double beds, I decided not to switch rooms, a move that I somewhat regretted once I went to sleep. The tv and cable selection were fine. It was clean and I had no problem with the wifi speed or connecting. The free breakfast was decent. Juice choices, gravy, coffee, fruit, biscuits, hard boiled eggs, waffles, sausage, toast and bagels. That is all I remember. Now, if you get down for breakfast on time, the gravy is not warm when breakfast begins. There is a microwave in the breakfast area which helps out a lot and got lots of use from myself and other hotel guests. The breakfast area is not big, it's not tiny, but not big at all. There is an adequate amount of free parking. The windows in my room opened, which is a touch that I like. I did not like the close proximity of the toilet and the shower, but maybe I am being picky about this. I also am not a fan of the sliding bathroom door. Also, the sink and mirror are in the room with the beds, not an enclosed area, I did not like that either. Kinda gave the hotel a "motel" feel in my opinion. The hotel is in a nice area, close to eateries like Chic-Fil-A, Starbucks, Landry's Seafood &amp; my personal favorite: Smashburger. There is a Target nearby and a Walmart not to far away as well. I did not try the HVAC system, the weather was cool like I prefer it, so I slept with the window open and the in room climate was great without the need to turn the air/heat on/off. The staff at the front desk was decent, meaning, 1 person was not over friendly at all and another person was super friendly and personable. I usually have names, but this time I do not, my apologies. I also would like to apologize for no pictures of this hotel. I did not try the pool, fitness area or laundry facilities. Would I stay here again, yes if I could get the room for the same/similar price. I booked on www.hotels.com for a grand total of: $205.25 for 3 nights. I hope this review helps.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded June 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2015</t>
+  </si>
+  <si>
+    <t>This is a late review. I stayed at this hotel for 3 nights in April during Cannabis Cup weekend 2015. The beds were fine, yet I do not feel that the rooms with "double beds" are queen size beds, they are more on the "full" sized bed type. I booked 1 king bed, but when I made it to my room and realized I was given 2 double beds, I decided not to switch rooms, a move that I somewhat regretted once I went to sleep. The tv and cable selection were fine. It was clean and I had no problem with the wifi speed or connecting. The free breakfast was decent. Juice choices, gravy, coffee, fruit, biscuits, hard boiled eggs, waffles, sausage, toast and bagels. That is all I remember. Now, if you get down for breakfast on time, the gravy is not warm when breakfast begins. There is a microwave in the breakfast area which helps out a lot and got lots of use from myself and other hotel guests. The breakfast area is not big, it's not tiny, but not big at all. There is an adequate amount of free parking. The windows in my room opened, which is a touch that I like. I did not like the close proximity of the toilet and the shower, but maybe I am being picky about this. I also am not a fan of the sliding bathroom door. Also,...This is a late review. I stayed at this hotel for 3 nights in April during Cannabis Cup weekend 2015. The beds were fine, yet I do not feel that the rooms with "double beds" are queen size beds, they are more on the "full" sized bed type. I booked 1 king bed, but when I made it to my room and realized I was given 2 double beds, I decided not to switch rooms, a move that I somewhat regretted once I went to sleep. The tv and cable selection were fine. It was clean and I had no problem with the wifi speed or connecting. The free breakfast was decent. Juice choices, gravy, coffee, fruit, biscuits, hard boiled eggs, waffles, sausage, toast and bagels. That is all I remember. Now, if you get down for breakfast on time, the gravy is not warm when breakfast begins. There is a microwave in the breakfast area which helps out a lot and got lots of use from myself and other hotel guests. The breakfast area is not big, it's not tiny, but not big at all. There is an adequate amount of free parking. The windows in my room opened, which is a touch that I like. I did not like the close proximity of the toilet and the shower, but maybe I am being picky about this. I also am not a fan of the sliding bathroom door. Also, the sink and mirror are in the room with the beds, not an enclosed area, I did not like that either. Kinda gave the hotel a "motel" feel in my opinion. The hotel is in a nice area, close to eateries like Chic-Fil-A, Starbucks, Landry's Seafood &amp; my personal favorite: Smashburger. There is a Target nearby and a Walmart not to far away as well. I did not try the HVAC system, the weather was cool like I prefer it, so I slept with the window open and the in room climate was great without the need to turn the air/heat on/off. The staff at the front desk was decent, meaning, 1 person was not over friendly at all and another person was super friendly and personable. I usually have names, but this time I do not, my apologies. I also would like to apologize for no pictures of this hotel. I did not try the pool, fitness area or laundry facilities. Would I stay here again, yes if I could get the room for the same/similar price. I booked on www.hotels.com for a grand total of: $205.25 for 3 nights. I hope this review helps.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r267343661-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>267343661</t>
+  </si>
+  <si>
+    <t>04/22/2015</t>
+  </si>
+  <si>
+    <t>We were pleasantly surprised!</t>
+  </si>
+  <si>
+    <t>We only paid $61 per night, but this hotel was very pleasant.  Our room was very clean.  We had free wifi.  There was a decent selection of cable channels (no HGTV, but they did have TLC).  The staff was very friendly and attentive.  Our room only had a shower (no tub) which I have never seen in this type of hotel room, but the shower was HUGE (big enough for two easily)!  The lobby and hallways were very clean.  There was ample free parking.  The hotel supplied shampoo, conditioner, lotion and soap.  There was in room coffee.  A mini fridge and a microwave!  The room had the old style heating/cooling unit (no wall thermostat).  There was a desk/dresser combo with a nice office chair.  The bed and pillows were very comfortable and clean.  The room had sufficient black out drapes.  The room was very tastefully decorated.  The room also had a closet with ample hangers.  Check-out is noon!  The only complaint we had was the breakfast.  We ate at 7:45 am.  The servers had to be asked to empty the two massive trash cans that were full and they did not keep the fruit bowl stocked.  There was only one orange left when we ate.  Due to this, the healthy choices were very limited.  They provided only maple and brown sugar oatmeal packets with no toppings.  There were hard boiled eggs, but they had been soaked in something with an...We only paid $61 per night, but this hotel was very pleasant.  Our room was very clean.  We had free wifi.  There was a decent selection of cable channels (no HGTV, but they did have TLC).  The staff was very friendly and attentive.  Our room only had a shower (no tub) which I have never seen in this type of hotel room, but the shower was HUGE (big enough for two easily)!  The lobby and hallways were very clean.  There was ample free parking.  The hotel supplied shampoo, conditioner, lotion and soap.  There was in room coffee.  A mini fridge and a microwave!  The room had the old style heating/cooling unit (no wall thermostat).  There was a desk/dresser combo with a nice office chair.  The bed and pillows were very comfortable and clean.  The room had sufficient black out drapes.  The room was very tastefully decorated.  The room also had a closet with ample hangers.  Check-out is noon!  The only complaint we had was the breakfast.  We ate at 7:45 am.  The servers had to be asked to empty the two massive trash cans that were full and they did not keep the fruit bowl stocked.  There was only one orange left when we ate.  Due to this, the healthy choices were very limited.  They provided only maple and brown sugar oatmeal packets with no toppings.  There were hard boiled eggs, but they had been soaked in something with an off flavor.  The orange juice was more like tang.  I brought my own plain oatmeal packet, but didn't even have a banana to put in it.  The unhealthier options were plentiful.  There were biscuits and gravy (but the gravy container was empty), white bread items, white waffles, white pastries, cereal, cream cheese, yogurt and sausage.  The hotel is very close to IKEA and an easy drive to downtown.  There is a Target and places to eat within walking distance.  There is a an indoor pool, but NO HOT TUB.  We didn't use the pool.  Even with the breakfast lacking, we will definitely stay here again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded April 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2015</t>
+  </si>
+  <si>
+    <t>We only paid $61 per night, but this hotel was very pleasant.  Our room was very clean.  We had free wifi.  There was a decent selection of cable channels (no HGTV, but they did have TLC).  The staff was very friendly and attentive.  Our room only had a shower (no tub) which I have never seen in this type of hotel room, but the shower was HUGE (big enough for two easily)!  The lobby and hallways were very clean.  There was ample free parking.  The hotel supplied shampoo, conditioner, lotion and soap.  There was in room coffee.  A mini fridge and a microwave!  The room had the old style heating/cooling unit (no wall thermostat).  There was a desk/dresser combo with a nice office chair.  The bed and pillows were very comfortable and clean.  The room had sufficient black out drapes.  The room was very tastefully decorated.  The room also had a closet with ample hangers.  Check-out is noon!  The only complaint we had was the breakfast.  We ate at 7:45 am.  The servers had to be asked to empty the two massive trash cans that were full and they did not keep the fruit bowl stocked.  There was only one orange left when we ate.  Due to this, the healthy choices were very limited.  They provided only maple and brown sugar oatmeal packets with no toppings.  There were hard boiled eggs, but they had been soaked in something with an...We only paid $61 per night, but this hotel was very pleasant.  Our room was very clean.  We had free wifi.  There was a decent selection of cable channels (no HGTV, but they did have TLC).  The staff was very friendly and attentive.  Our room only had a shower (no tub) which I have never seen in this type of hotel room, but the shower was HUGE (big enough for two easily)!  The lobby and hallways were very clean.  There was ample free parking.  The hotel supplied shampoo, conditioner, lotion and soap.  There was in room coffee.  A mini fridge and a microwave!  The room had the old style heating/cooling unit (no wall thermostat).  There was a desk/dresser combo with a nice office chair.  The bed and pillows were very comfortable and clean.  The room had sufficient black out drapes.  The room was very tastefully decorated.  The room also had a closet with ample hangers.  Check-out is noon!  The only complaint we had was the breakfast.  We ate at 7:45 am.  The servers had to be asked to empty the two massive trash cans that were full and they did not keep the fruit bowl stocked.  There was only one orange left when we ate.  Due to this, the healthy choices were very limited.  They provided only maple and brown sugar oatmeal packets with no toppings.  There were hard boiled eggs, but they had been soaked in something with an off flavor.  The orange juice was more like tang.  I brought my own plain oatmeal packet, but didn't even have a banana to put in it.  The unhealthier options were plentiful.  There were biscuits and gravy (but the gravy container was empty), white bread items, white waffles, white pastries, cereal, cream cheese, yogurt and sausage.  The hotel is very close to IKEA and an easy drive to downtown.  There is a Target and places to eat within walking distance.  There is a an indoor pool, but NO HOT TUB.  We didn't use the pool.  Even with the breakfast lacking, we will definitely stay here again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r265072778-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>265072778</t>
+  </si>
+  <si>
+    <t>04/11/2015</t>
+  </si>
+  <si>
+    <t>Still There</t>
+  </si>
+  <si>
+    <t>I find myself in the Denver - Colorado Springs area for business for about 10 days so I searched for a place somewhat central to my work travel requirements. It met that requirement nicely just off of the freeway and close to a lot of food establishments for dinner. The hotel is clean and well kept and staff is friendly and responsive enough, but not overly so, if that is important. I spend so little time there that this is not as important for me. Breakfast is provided and the room is small but so far has been large enough for the times that I leave in the morning. They could use a little more variety in their selections and the gravy for the biscuits and gravy could be warmed a little earlier so a microwave is not needed but it has largely met my needs for my travel on this trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded April 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2015</t>
+  </si>
+  <si>
+    <t>I find myself in the Denver - Colorado Springs area for business for about 10 days so I searched for a place somewhat central to my work travel requirements. It met that requirement nicely just off of the freeway and close to a lot of food establishments for dinner. The hotel is clean and well kept and staff is friendly and responsive enough, but not overly so, if that is important. I spend so little time there that this is not as important for me. Breakfast is provided and the room is small but so far has been large enough for the times that I leave in the morning. They could use a little more variety in their selections and the gravy for the biscuits and gravy could be warmed a little earlier so a microwave is not needed but it has largely met my needs for my travel on this trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r259340343-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>259340343</t>
+  </si>
+  <si>
+    <t>03/13/2015</t>
+  </si>
+  <si>
+    <t>Good place but busy and therefore loud</t>
+  </si>
+  <si>
+    <t>Nice accommodations, friendly staff, comfy bed.... now for negatives.... The place is packed and with loud guests who don't understand what common courtesy is. Also the parking is a bit of a frightful mess as it is combined with neighboring hotels. Lastly the wifi was wonderful, had the best connection ever at any Sleep Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded March 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2015</t>
+  </si>
+  <si>
+    <t>Nice accommodations, friendly staff, comfy bed.... now for negatives.... The place is packed and with loud guests who don't understand what common courtesy is. Also the parking is a bit of a frightful mess as it is combined with neighboring hotels. Lastly the wifi was wonderful, had the best connection ever at any Sleep Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r251183616-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>251183616</t>
+  </si>
+  <si>
+    <t>01/26/2015</t>
+  </si>
+  <si>
+    <t>Best experience</t>
+  </si>
+  <si>
+    <t>I have used this hotel multiple times, usually when I'm on a business trip to the Denver Tech Center trip. The rooms are very clean, nice, warm, and well kept and the staff have very warm hearts and are very friendly. Had a wonderful swim, and in the morning had a hearty breakfast. I really enjoy my stay, and will continue my business here.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded January 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2015</t>
+  </si>
+  <si>
+    <t>I have used this hotel multiple times, usually when I'm on a business trip to the Denver Tech Center trip. The rooms are very clean, nice, warm, and well kept and the staff have very warm hearts and are very friendly. Had a wonderful swim, and in the morning had a hearty breakfast. I really enjoy my stay, and will continue my business here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r251001653-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>251001653</t>
+  </si>
+  <si>
+    <t>01/25/2015</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>Notel was nice!  Front desk people were very nice and quick.  The rooms were clean and smelled good, clean.  The swimming pool was at the perfect temperature and very well maintained.  The location is great, well situated.  The breakfast options were great, especially for free!  Managers were very friendly and accommodating.  Would highly recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Notel was nice!  Front desk people were very nice and quick.  The rooms were clean and smelled good, clean.  The swimming pool was at the perfect temperature and very well maintained.  The location is great, well situated.  The breakfast options were great, especially for free!  Managers were very friendly and accommodating.  Would highly recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r250064568-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>250064568</t>
+  </si>
+  <si>
+    <t>01/19/2015</t>
+  </si>
+  <si>
+    <t>try and SLEEP at this INN</t>
+  </si>
+  <si>
+    <t>I spent the night of 13 January at the Sleep Inn Tech center.  Check in was quick and friendly.  The room was  on the small side, but I was traveling solo without much luggage, it worked.  The room was clean and well appointed.  The swimming pool was warm (no hot tub) and the exercise equipment was nice in the morning.  Breakfast consisted of a few cold cereals, oatmeal, bread for toasting, make you own waffles, juice, yogurt, and hot sausage patties...a sufficient breakfast.  , Wifi was excellent.  My only complaints, as stated before, was 1) the noisy heater/air conditioner).  There  was no 'fan only' option, just heat or cold that would cycle on and off.  When it cycled on, it was loud...almost like a growl.  2)  you are right near interstate.  Morning traffic starts before 5am.  you WILL hear cars/trucks fly by.  By 8am traffic is bumper to bumper...MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded January 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2015</t>
+  </si>
+  <si>
+    <t>I spent the night of 13 January at the Sleep Inn Tech center.  Check in was quick and friendly.  The room was  on the small side, but I was traveling solo without much luggage, it worked.  The room was clean and well appointed.  The swimming pool was warm (no hot tub) and the exercise equipment was nice in the morning.  Breakfast consisted of a few cold cereals, oatmeal, bread for toasting, make you own waffles, juice, yogurt, and hot sausage patties...a sufficient breakfast.  , Wifi was excellent.  My only complaints, as stated before, was 1) the noisy heater/air conditioner).  There  was no 'fan only' option, just heat or cold that would cycle on and off.  When it cycled on, it was loud...almost like a growl.  2)  you are right near interstate.  Morning traffic starts before 5am.  you WILL hear cars/trucks fly by.  By 8am traffic is bumper to bumper...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r228541309-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>228541309</t>
+  </si>
+  <si>
+    <t>09/12/2014</t>
+  </si>
+  <si>
+    <t>Will not stay there again</t>
+  </si>
+  <si>
+    <t>I never write reviews, anywhere...this is truly the first for me...I spent one night at this hotel (09/06/2014) and I was so glad to leave the next day. The front-desk staff was terrible. Checking in, they looked like they really did not want to deal with me at all, or the guy next to me, for that matter. Just really bad vibes from them and total disinterested and tardy and disrespectful service. To be fair, the room itself was ok, just a bit of a strange smell. Otherwise it was pretty clean.However...the next morning, there was no hot water in the room. I had a 'hard' schedule, so I was forced to take a cold shower to get ready to depart. Not a nice way to start the day.I stopped by the front desk to report it, and true to form, they just replied "we know, it's been fixed"...not even so much as a basic "we are sorry for the inconvenience". The reception staff are easily some of the worst I've ever encountered. It really left a bad taste in my mouth...MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded September 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2014</t>
+  </si>
+  <si>
+    <t>I never write reviews, anywhere...this is truly the first for me...I spent one night at this hotel (09/06/2014) and I was so glad to leave the next day. The front-desk staff was terrible. Checking in, they looked like they really did not want to deal with me at all, or the guy next to me, for that matter. Just really bad vibes from them and total disinterested and tardy and disrespectful service. To be fair, the room itself was ok, just a bit of a strange smell. Otherwise it was pretty clean.However...the next morning, there was no hot water in the room. I had a 'hard' schedule, so I was forced to take a cold shower to get ready to depart. Not a nice way to start the day.I stopped by the front desk to report it, and true to form, they just replied "we know, it's been fixed"...not even so much as a basic "we are sorry for the inconvenience". The reception staff are easily some of the worst I've ever encountered. It really left a bad taste in my mouth...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r228496619-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>228496619</t>
+  </si>
+  <si>
+    <t>Discrimination</t>
+  </si>
+  <si>
+    <t>I am 24 years old and wanted a place to stay with my friends for a concert that we drove from Oklahoma city for. The first night everything went smooth the staff was polite and we felt like we found a good spot. The next morning my friend was accused of exposing himself in the hallway. The maid who made the claim couldn't identify who did this to her and was unable to submit proof. One hour before check out they said they were evacuating the building and we needed to be out in 5 minutes making it seem like an emergency. They later returned saying we didn't own this room and that the peraon who rented it left at 730 this morning. They lied to us because it is my name that is on the room and I had not even checked out yet. It wasn't until I called that they decided to tell me their version of the truth. We were racially and age group discriminated against and I would not recommend anyone stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am 24 years old and wanted a place to stay with my friends for a concert that we drove from Oklahoma city for. The first night everything went smooth the staff was polite and we felt like we found a good spot. The next morning my friend was accused of exposing himself in the hallway. The maid who made the claim couldn't identify who did this to her and was unable to submit proof. One hour before check out they said they were evacuating the building and we needed to be out in 5 minutes making it seem like an emergency. They later returned saying we didn't own this room and that the peraon who rented it left at 730 this morning. They lied to us because it is my name that is on the room and I had not even checked out yet. It wasn't until I called that they decided to tell me their version of the truth. We were racially and age group discriminated against and I would not recommend anyone stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r220725065-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>220725065</t>
+  </si>
+  <si>
+    <t>08/09/2014</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>I was in Denver for business and decided to give this place a try.  It's a great place for the price.  Comfortable, clean, nice work area/desk, extremely friendly and helpful staff - all for the low price of $74 per night.  There was also a passable workout room and nice pool.  Breakfast was about what you would expect - some hot foods, plenty of yogurt, bagels, hard boiled eggs, etc.  It isn't a 4 star hotel, but it's in a good location and great for a work trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded August 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2014</t>
+  </si>
+  <si>
+    <t>I was in Denver for business and decided to give this place a try.  It's a great place for the price.  Comfortable, clean, nice work area/desk, extremely friendly and helpful staff - all for the low price of $74 per night.  There was also a passable workout room and nice pool.  Breakfast was about what you would expect - some hot foods, plenty of yogurt, bagels, hard boiled eggs, etc.  It isn't a 4 star hotel, but it's in a good location and great for a work trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r217204797-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>217204797</t>
+  </si>
+  <si>
+    <t>07/24/2014</t>
+  </si>
+  <si>
+    <t>Best Value For The Money</t>
+  </si>
+  <si>
+    <t>As a major traveler both International &amp; domestic I stay in a lot of hotels from luxury hotels to great affordable low-price high value hotels. The sleep Inn and let me first say, I can only vouch for this particular hotel has been one of my best finds in terms of value for money.   I stayed here before the renovation a few times and it wasn't bad, however, I had to lower my expectations ALOT, I had my share beds not made, people still in the room when I walked in, dirty towels.   But just as I was about to ditch the hotel they started the renovation in 2012 late or early 2013 can't remember, things started to improve and gradually the hotel became and is now a great little hotel for value-conscious customers and noticed I didn't say CHEAP, because people looking for simply the lowest cost will find anything, everything to complain about and I know first hand stuff happens.  The question is how did you handle the situation.  I remember when the bathroom was dirty.  I just politely walk to the front desk and told them and they re-assigned me to another room, was I irritated, yes, because I had a long flight and it was late.  Did it justify me writing a negative review, no, because, the rest of the stay was fine and issue resolved.  It's a business, businesses are ran by people and people...As a major traveler both International &amp; domestic I stay in a lot of hotels from luxury hotels to great affordable low-price high value hotels. The sleep Inn and let me first say, I can only vouch for this particular hotel has been one of my best finds in terms of value for money.   I stayed here before the renovation a few times and it wasn't bad, however, I had to lower my expectations ALOT, I had my share beds not made, people still in the room when I walked in, dirty towels.   But just as I was about to ditch the hotel they started the renovation in 2012 late or early 2013 can't remember, things started to improve and gradually the hotel became and is now a great little hotel for value-conscious customers and noticed I didn't say CHEAP, because people looking for simply the lowest cost will find anything, everything to complain about and I know first hand stuff happens.  The question is how did you handle the situation.  I remember when the bathroom was dirty.  I just politely walk to the front desk and told them and they re-assigned me to another room, was I irritated, yes, because I had a long flight and it was late.  Did it justify me writing a negative review, no, because, the rest of the stay was fine and issue resolved.  It's a business, businesses are ran by people and people make mistakes.  Now if I was at a luxury hotel, we'll, now I am paying a premium for fewer mistakes and I have a different set of expectations and would have been angry after spending $300+ a night to come into a bathroom not cleaned.   But for less than $100 bucks, I can accept a few more mistakes... But this hotel has done a wonderful job in all categories now will you catch a person on a bad day or have a misunderstanding YES MAYBE and that might be ur only time their, but I do know they try their best... I was happy to write a review because I have seen the transformation....MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded July 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2014</t>
+  </si>
+  <si>
+    <t>As a major traveler both International &amp; domestic I stay in a lot of hotels from luxury hotels to great affordable low-price high value hotels. The sleep Inn and let me first say, I can only vouch for this particular hotel has been one of my best finds in terms of value for money.   I stayed here before the renovation a few times and it wasn't bad, however, I had to lower my expectations ALOT, I had my share beds not made, people still in the room when I walked in, dirty towels.   But just as I was about to ditch the hotel they started the renovation in 2012 late or early 2013 can't remember, things started to improve and gradually the hotel became and is now a great little hotel for value-conscious customers and noticed I didn't say CHEAP, because people looking for simply the lowest cost will find anything, everything to complain about and I know first hand stuff happens.  The question is how did you handle the situation.  I remember when the bathroom was dirty.  I just politely walk to the front desk and told them and they re-assigned me to another room, was I irritated, yes, because I had a long flight and it was late.  Did it justify me writing a negative review, no, because, the rest of the stay was fine and issue resolved.  It's a business, businesses are ran by people and people...As a major traveler both International &amp; domestic I stay in a lot of hotels from luxury hotels to great affordable low-price high value hotels. The sleep Inn and let me first say, I can only vouch for this particular hotel has been one of my best finds in terms of value for money.   I stayed here before the renovation a few times and it wasn't bad, however, I had to lower my expectations ALOT, I had my share beds not made, people still in the room when I walked in, dirty towels.   But just as I was about to ditch the hotel they started the renovation in 2012 late or early 2013 can't remember, things started to improve and gradually the hotel became and is now a great little hotel for value-conscious customers and noticed I didn't say CHEAP, because people looking for simply the lowest cost will find anything, everything to complain about and I know first hand stuff happens.  The question is how did you handle the situation.  I remember when the bathroom was dirty.  I just politely walk to the front desk and told them and they re-assigned me to another room, was I irritated, yes, because I had a long flight and it was late.  Did it justify me writing a negative review, no, because, the rest of the stay was fine and issue resolved.  It's a business, businesses are ran by people and people make mistakes.  Now if I was at a luxury hotel, we'll, now I am paying a premium for fewer mistakes and I have a different set of expectations and would have been angry after spending $300+ a night to come into a bathroom not cleaned.   But for less than $100 bucks, I can accept a few more mistakes... But this hotel has done a wonderful job in all categories now will you catch a person on a bad day or have a misunderstanding YES MAYBE and that might be ur only time their, but I do know they try their best... I was happy to write a review because I have seen the transformation....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r216709216-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>216709216</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>BEWARE OF BEING DOUBLE CHARGED</t>
+  </si>
+  <si>
+    <t>I received a call from my bank stating that my card had been charged twice.  I reviewed my recent transaction and the bank was correct.  I spoke with a man that stated he was the General Manager and Owner and wanted to get clarification.  I was hung up on twice and was told that if I decided on legal action he would hang up on my attorney also.  I sent an e-mail to Customer Support so that I could speak with someone to get this resolved and I have yet to hear back from them.  This was my last stay at any Choice Hotel properties; it's a shame because Kristofer, the front desk representative, was extremely helpful.  Unfortunately, his boss turned a great experience into a lousy one.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Public Relations Manager at Sleep Inn Denver Tech Center, responded to this reviewResponded July 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2014</t>
+  </si>
+  <si>
+    <t>I received a call from my bank stating that my card had been charged twice.  I reviewed my recent transaction and the bank was correct.  I spoke with a man that stated he was the General Manager and Owner and wanted to get clarification.  I was hung up on twice and was told that if I decided on legal action he would hang up on my attorney also.  I sent an e-mail to Customer Support so that I could speak with someone to get this resolved and I have yet to hear back from them.  This was my last stay at any Choice Hotel properties; it's a shame because Kristofer, the front desk representative, was extremely helpful.  Unfortunately, his boss turned a great experience into a lousy one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r214379468-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>214379468</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>Choice Privileges Members BEWARE!!! (and everyone else)</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel out of necessity for one night. I made the reservation through www.choicehotels.com, using my account.  It was not for business or leisure but convenience with too may things being juggled at once. I THOUGHT everything was ok with our stay until a few weeks down the line when I noticed that we did not receive any points for our stay. I sent an email to report a missing stay and was informed that because my boyfriend wanted to check in early while I was at work, they had changed the reservation to his name and I couldn't get any points since they couldn't verify that I was the second guest in the room. I had several emails from Choice of them insinuating that I did not stay there and I couldn't get any points for making a reservation for someone else. Talk about bad customer service! I did stay there and they kept basically accusing me of lying. Then I left a message for the manager and he never bothered to call me back. Guess customer service isn't high on his priority list either. I finally called again and reached someone at the front desk who informed me that I wouldn't have gotten any points for my stay even if the name of the reservation hadn't been changed because my rate plan (AAA) didn't qualify. I was advised that in the future, I should...I recently stayed at this hotel out of necessity for one night. I made the reservation through www.choicehotels.com, using my account.  It was not for business or leisure but convenience with too may things being juggled at once. I THOUGHT everything was ok with our stay until a few weeks down the line when I noticed that we did not receive any points for our stay. I sent an email to report a missing stay and was informed that because my boyfriend wanted to check in early while I was at work, they had changed the reservation to his name and I couldn't get any points since they couldn't verify that I was the second guest in the room. I had several emails from Choice of them insinuating that I did not stay there and I couldn't get any points for making a reservation for someone else. Talk about bad customer service! I did stay there and they kept basically accusing me of lying. Then I left a message for the manager and he never bothered to call me back. Guess customer service isn't high on his priority list either. I finally called again and reached someone at the front desk who informed me that I wouldn't have gotten any points for my stay even if the name of the reservation hadn't been changed because my rate plan (AAA) didn't qualify. I was advised that in the future, I should contact the hotel directly after making a reservation to ensure my rate plan would qualify for points. I have NEVER had this problem before at any other Choice property I have stayed at. So, all in all, this is kind of a dumpy hotel. The breakfast was fine. It is just a cheap place to stay - kind of a Walmart of hotels. With all of the hotel choices in the area, I would suggest trying out another one before thinking about staying here. Oh, and if you think you will get any kids of points for your stay, think again. To get a better idea of who is running this place, there is a nice sign out front that says, "No Smoking, No EXEMPTIONS." Really?  I think you mean EXCEPTIONS. Maybe you need to go back and take some customer service classes and some vocabulary classes as well. BEWARE PEOPLE!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Lori J, Public Relations Manager at Sleep Inn Denver Tech Center, responded to this reviewResponded July 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2014</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel out of necessity for one night. I made the reservation through www.choicehotels.com, using my account.  It was not for business or leisure but convenience with too may things being juggled at once. I THOUGHT everything was ok with our stay until a few weeks down the line when I noticed that we did not receive any points for our stay. I sent an email to report a missing stay and was informed that because my boyfriend wanted to check in early while I was at work, they had changed the reservation to his name and I couldn't get any points since they couldn't verify that I was the second guest in the room. I had several emails from Choice of them insinuating that I did not stay there and I couldn't get any points for making a reservation for someone else. Talk about bad customer service! I did stay there and they kept basically accusing me of lying. Then I left a message for the manager and he never bothered to call me back. Guess customer service isn't high on his priority list either. I finally called again and reached someone at the front desk who informed me that I wouldn't have gotten any points for my stay even if the name of the reservation hadn't been changed because my rate plan (AAA) didn't qualify. I was advised that in the future, I should...I recently stayed at this hotel out of necessity for one night. I made the reservation through www.choicehotels.com, using my account.  It was not for business or leisure but convenience with too may things being juggled at once. I THOUGHT everything was ok with our stay until a few weeks down the line when I noticed that we did not receive any points for our stay. I sent an email to report a missing stay and was informed that because my boyfriend wanted to check in early while I was at work, they had changed the reservation to his name and I couldn't get any points since they couldn't verify that I was the second guest in the room. I had several emails from Choice of them insinuating that I did not stay there and I couldn't get any points for making a reservation for someone else. Talk about bad customer service! I did stay there and they kept basically accusing me of lying. Then I left a message for the manager and he never bothered to call me back. Guess customer service isn't high on his priority list either. I finally called again and reached someone at the front desk who informed me that I wouldn't have gotten any points for my stay even if the name of the reservation hadn't been changed because my rate plan (AAA) didn't qualify. I was advised that in the future, I should contact the hotel directly after making a reservation to ensure my rate plan would qualify for points. I have NEVER had this problem before at any other Choice property I have stayed at. So, all in all, this is kind of a dumpy hotel. The breakfast was fine. It is just a cheap place to stay - kind of a Walmart of hotels. With all of the hotel choices in the area, I would suggest trying out another one before thinking about staying here. Oh, and if you think you will get any kids of points for your stay, think again. To get a better idea of who is running this place, there is a nice sign out front that says, "No Smoking, No EXEMPTIONS." Really?  I think you mean EXCEPTIONS. Maybe you need to go back and take some customer service classes and some vocabulary classes as well. BEWARE PEOPLE!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r211864553-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>211864553</t>
+  </si>
+  <si>
+    <t>06/24/2014</t>
+  </si>
+  <si>
+    <t>Check your room before unpacking</t>
+  </si>
+  <si>
+    <t>Attending a wedding and didn't have time to inspect the room beforehand.  The shower knob was off and laying on top of toilet, security latch broken, sheets thin with holes, thin towels, broken knob on refrigerator, lots of cigarette butts outside back door entrance which was closest to our room plus some questionable people hanging around the back door entrance when we arrived.  As we were leaving some guy was taking 3 large dogs out of his room to his car.  Wonder if hotel knew and approved of them and although breakfast was good, the restroom lights in the eating area were not working.  The staff when we checked in was very efficient but when we checked out staff did not seem surprised nor cared about how poorly maintained the room was.  Perhaps there are rooms that are being upgraded but our room on the first floor definitely needed help.  I was totally surprised by how poorly this place was kept especially when I paid much less for a room at another hotel on the way home and it was much nicer so "you get what you pay for" doesn't apply here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded June 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2014</t>
+  </si>
+  <si>
+    <t>Attending a wedding and didn't have time to inspect the room beforehand.  The shower knob was off and laying on top of toilet, security latch broken, sheets thin with holes, thin towels, broken knob on refrigerator, lots of cigarette butts outside back door entrance which was closest to our room plus some questionable people hanging around the back door entrance when we arrived.  As we were leaving some guy was taking 3 large dogs out of his room to his car.  Wonder if hotel knew and approved of them and although breakfast was good, the restroom lights in the eating area were not working.  The staff when we checked in was very efficient but when we checked out staff did not seem surprised nor cared about how poorly maintained the room was.  Perhaps there are rooms that are being upgraded but our room on the first floor definitely needed help.  I was totally surprised by how poorly this place was kept especially when I paid much less for a room at another hotel on the way home and it was much nicer so "you get what you pay for" doesn't apply here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r210852552-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>210852552</t>
+  </si>
+  <si>
+    <t>06/17/2014</t>
+  </si>
+  <si>
+    <t>what else could go wrong?</t>
+  </si>
+  <si>
+    <t>Asked for ground floor upon booking and when I checked in apparently I was too late they gave them all away. Then they put me on the third floor where I couldn't get wifi because of interference. Then the guest laundry was down and to top it off so where the elevators. I was here for a week doing 80 hours a week at work had a 12 hour course to take online they said I could use the computer in the lobby but it doesn't have Adobe and they asked me to limit my time to 10 minutes. And no plugin for my laptop by the couches.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded June 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2014</t>
+  </si>
+  <si>
+    <t>Asked for ground floor upon booking and when I checked in apparently I was too late they gave them all away. Then they put me on the third floor where I couldn't get wifi because of interference. Then the guest laundry was down and to top it off so where the elevators. I was here for a week doing 80 hours a week at work had a 12 hour course to take online they said I could use the computer in the lobby but it doesn't have Adobe and they asked me to limit my time to 10 minutes. And no plugin for my laptop by the couches.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r209806571-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>209806571</t>
+  </si>
+  <si>
+    <t>06/10/2014</t>
+  </si>
+  <si>
+    <t>Disappointing, no attention to detail.</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel several times before. I gave it 4 stars last time. Things have slid downhill. There were numerous deficiencies in the room I was assigned to.
+There was some kind of black crud spots on the top of the toilet seat cover. The toilet itself would run on and on, the valve needed to be replaced.
+There was a 12'' or longer crack in the sink countertop.
+There were several holes drilled in the wall, possibly from lamp fixtures or something else that have been moved, but the wall not repaired.
+The grill/filter cover on the air conditioner was loose and would not stay in place. The A/C itself worked fine, but it was so loud there was no way to sleep with it turned on.
+There was a gaping blank area in the wall paint job, again possibly where another fixture was moved.
+The security deadbolt on the door did not lock properly.
+The ice machine is located inside the breakfast area, but at night the room is closed and the lights turned off. It was dangerous trying to get a bucket of ice in the dark.
+And my favorite pet peeve: if a hotel goes to the expense of putting alarm clocks in the room, why can't your housekeepers take the time to make sure the clock is plugged in and is showing the correct time? WHY? WHY? WHY?
+There was probably more,...I have stayed at this hotel several times before. I gave it 4 stars last time. Things have slid downhill. There were numerous deficiencies in the room I was assigned to.There was some kind of black crud spots on the top of the toilet seat cover. The toilet itself would run on and on, the valve needed to be replaced.There was a 12'' or longer crack in the sink countertop.There were several holes drilled in the wall, possibly from lamp fixtures or something else that have been moved, but the wall not repaired.The grill/filter cover on the air conditioner was loose and would not stay in place. The A/C itself worked fine, but it was so loud there was no way to sleep with it turned on.There was a gaping blank area in the wall paint job, again possibly where another fixture was moved.The security deadbolt on the door did not lock properly.The ice machine is located inside the breakfast area, but at night the room is closed and the lights turned off. It was dangerous trying to get a bucket of ice in the dark.And my favorite pet peeve: if a hotel goes to the expense of putting alarm clocks in the room, why can't your housekeepers take the time to make sure the clock is plugged in and is showing the correct time? WHY? WHY? WHY?There was probably more, but I got tired of taking notes.On the plus side, there are nice new big screen HD TVs and unlike last time the internet connection was very fast.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Public Relations Manager at Sleep Inn Denver Tech Center, responded to this reviewResponded June 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel several times before. I gave it 4 stars last time. Things have slid downhill. There were numerous deficiencies in the room I was assigned to.
+There was some kind of black crud spots on the top of the toilet seat cover. The toilet itself would run on and on, the valve needed to be replaced.
+There was a 12'' or longer crack in the sink countertop.
+There were several holes drilled in the wall, possibly from lamp fixtures or something else that have been moved, but the wall not repaired.
+The grill/filter cover on the air conditioner was loose and would not stay in place. The A/C itself worked fine, but it was so loud there was no way to sleep with it turned on.
+There was a gaping blank area in the wall paint job, again possibly where another fixture was moved.
+The security deadbolt on the door did not lock properly.
+The ice machine is located inside the breakfast area, but at night the room is closed and the lights turned off. It was dangerous trying to get a bucket of ice in the dark.
+And my favorite pet peeve: if a hotel goes to the expense of putting alarm clocks in the room, why can't your housekeepers take the time to make sure the clock is plugged in and is showing the correct time? WHY? WHY? WHY?
+There was probably more,...I have stayed at this hotel several times before. I gave it 4 stars last time. Things have slid downhill. There were numerous deficiencies in the room I was assigned to.There was some kind of black crud spots on the top of the toilet seat cover. The toilet itself would run on and on, the valve needed to be replaced.There was a 12'' or longer crack in the sink countertop.There were several holes drilled in the wall, possibly from lamp fixtures or something else that have been moved, but the wall not repaired.The grill/filter cover on the air conditioner was loose and would not stay in place. The A/C itself worked fine, but it was so loud there was no way to sleep with it turned on.There was a gaping blank area in the wall paint job, again possibly where another fixture was moved.The security deadbolt on the door did not lock properly.The ice machine is located inside the breakfast area, but at night the room is closed and the lights turned off. It was dangerous trying to get a bucket of ice in the dark.And my favorite pet peeve: if a hotel goes to the expense of putting alarm clocks in the room, why can't your housekeepers take the time to make sure the clock is plugged in and is showing the correct time? WHY? WHY? WHY?There was probably more, but I got tired of taking notes.On the plus side, there are nice new big screen HD TVs and unlike last time the internet connection was very fast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r207295415-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>207295415</t>
+  </si>
+  <si>
+    <t>05/27/2014</t>
+  </si>
+  <si>
+    <t>Immaculate!</t>
+  </si>
+  <si>
+    <t>This hotel looked like it was just remodeled. Everything from the parking lot, to lobby and the room was super clean and like new.  Room had new carpet and paint, had a new mini fridge and microwave and in all was super clean!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded May 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2014</t>
+  </si>
+  <si>
+    <t>This hotel looked like it was just remodeled. Everything from the parking lot, to lobby and the room was super clean and like new.  Room had new carpet and paint, had a new mini fridge and microwave and in all was super clean!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r206559517-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>206559517</t>
+  </si>
+  <si>
+    <t>05/21/2014</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>I found a half-eaten bagel with cream cheese behind the fridge. The room had the sweet smell of bacteria. The coffee pot was dirty. The bathroom door wouldn't close all the way. The shower door had mildew. The a/c barely worked. The light in the hall flickered in a creepy way that I had only seen in movies.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded May 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2014</t>
+  </si>
+  <si>
+    <t>I found a half-eaten bagel with cream cheese behind the fridge. The room had the sweet smell of bacteria. The coffee pot was dirty. The bathroom door wouldn't close all the way. The shower door had mildew. The a/c barely worked. The light in the hall flickered in a creepy way that I had only seen in movies.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r206050850-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>206050850</t>
+  </si>
+  <si>
+    <t>05/18/2014</t>
+  </si>
+  <si>
+    <t>Good for the price</t>
+  </si>
+  <si>
+    <t>The room was small, as might be expected for the price, but clean and comfortable. The window screen was torn. The property is very close to I-25 and the traffic noise is always there, but quite tolerable with the window closed. The breakfast room used to have biscuits and gravy, which everyone liked, but it has been discontinued. There were not enough tables for people on a Saturday morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded May 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2014</t>
+  </si>
+  <si>
+    <t>The room was small, as might be expected for the price, but clean and comfortable. The window screen was torn. The property is very close to I-25 and the traffic noise is always there, but quite tolerable with the window closed. The breakfast room used to have biscuits and gravy, which everyone liked, but it has been discontinued. There were not enough tables for people on a Saturday morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r198394509-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>198394509</t>
+  </si>
+  <si>
+    <t>03/23/2014</t>
+  </si>
+  <si>
+    <t>Clean room but terrible service!</t>
+  </si>
+  <si>
+    <t>The rooms at this location are small but clean. Mattresses are fairly new  but a little hard for my comfort. I would have given this hotel a 5 but after reading the guest service guide in the room, we were under the impression we had until 10am on Sunday morning to get breakfast. We arrived downstairs just after 9 and noticed a couple things missing. Thinking items were being replaced, I grabbed a cup of waffle batter and poured it in the iron. When I turned around the employee was literally grabbing things off of the counter out from under people! When I protested, the woman argued with me! I went to the front desk to complain and that woman told me the book was not correct and the person who checked me in should have informed us. She was there when I checked in but I don't recall being informed (was very tired after a long trip)(again that is what the books in the room are for!)  I was not the only one who read the book who had the same impression! When I returned to get my waffle out of the cooker, the woman had removed the remaining batter and turned off the waffle maker so I wasn't even able to finish cooking it to share with my husband! We also ran out of toilet paper because there was not an extra one in the bathroom with a...The rooms at this location are small but clean. Mattresses are fairly new  but a little hard for my comfort. I would have given this hotel a 5 but after reading the guest service guide in the room, we were under the impression we had until 10am on Sunday morning to get breakfast. We arrived downstairs just after 9 and noticed a couple things missing. Thinking items were being replaced, I grabbed a cup of waffle batter and poured it in the iron. When I turned around the employee was literally grabbing things off of the counter out from under people! When I protested, the woman argued with me! I went to the front desk to complain and that woman told me the book was not correct and the person who checked me in should have informed us. She was there when I checked in but I don't recall being informed (was very tired after a long trip)(again that is what the books in the room are for!)  I was not the only one who read the book who had the same impression! When I returned to get my waffle out of the cooker, the woman had removed the remaining batter and turned off the waffle maker so I wasn't even able to finish cooking it to share with my husband! We also ran out of toilet paper because there was not an extra one in the bathroom with a partial roll. No soap by the sink for hand washing, and when I called choice hotels to complain, I couldn't find a pen or paper in the room to write down the information. We also were not informed when making reservations that a refrigerator and microwave were available as an option. Very substandard for a choice hotels location in my opinion! I would not recommend this location! Very disrespectful employees!MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded March 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2014</t>
+  </si>
+  <si>
+    <t>The rooms at this location are small but clean. Mattresses are fairly new  but a little hard for my comfort. I would have given this hotel a 5 but after reading the guest service guide in the room, we were under the impression we had until 10am on Sunday morning to get breakfast. We arrived downstairs just after 9 and noticed a couple things missing. Thinking items were being replaced, I grabbed a cup of waffle batter and poured it in the iron. When I turned around the employee was literally grabbing things off of the counter out from under people! When I protested, the woman argued with me! I went to the front desk to complain and that woman told me the book was not correct and the person who checked me in should have informed us. She was there when I checked in but I don't recall being informed (was very tired after a long trip)(again that is what the books in the room are for!)  I was not the only one who read the book who had the same impression! When I returned to get my waffle out of the cooker, the woman had removed the remaining batter and turned off the waffle maker so I wasn't even able to finish cooking it to share with my husband! We also ran out of toilet paper because there was not an extra one in the bathroom with a...The rooms at this location are small but clean. Mattresses are fairly new  but a little hard for my comfort. I would have given this hotel a 5 but after reading the guest service guide in the room, we were under the impression we had until 10am on Sunday morning to get breakfast. We arrived downstairs just after 9 and noticed a couple things missing. Thinking items were being replaced, I grabbed a cup of waffle batter and poured it in the iron. When I turned around the employee was literally grabbing things off of the counter out from under people! When I protested, the woman argued with me! I went to the front desk to complain and that woman told me the book was not correct and the person who checked me in should have informed us. She was there when I checked in but I don't recall being informed (was very tired after a long trip)(again that is what the books in the room are for!)  I was not the only one who read the book who had the same impression! When I returned to get my waffle out of the cooker, the woman had removed the remaining batter and turned off the waffle maker so I wasn't even able to finish cooking it to share with my husband! We also ran out of toilet paper because there was not an extra one in the bathroom with a partial roll. No soap by the sink for hand washing, and when I called choice hotels to complain, I couldn't find a pen or paper in the room to write down the information. We also were not informed when making reservations that a refrigerator and microwave were available as an option. Very substandard for a choice hotels location in my opinion! I would not recommend this location! Very disrespectful employees!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r197322167-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>197322167</t>
+  </si>
+  <si>
+    <t>03/13/2014</t>
+  </si>
+  <si>
+    <t>Dog Friendly was super appreciated!</t>
+  </si>
+  <si>
+    <t>We stayed here for two days/nights while our home was being worked on. The staff is RIDICULOUSLY nice and helpful. In fact, it sadly freaked me out since I am used to customer service being mediocre or just downright rude nowadays. The rooms, although small, had all the accommodations you would expect from a comparable hotel (ie: Holiday Inn). They are dog friendly, clearly lay out the rules for you and your pup to follow (along with a dog biscuit, nice touch!), and don't charge an arm and a leg for pet stays!!! We were really happy to find that their pet charge was only $15/per night compared to the $40 average we are used to paying. Two minor things--- the room we stayed in was very very warm and it was hard to keep it at a constant cool. This may be because it's in between two levels? Just something to think about when you are making your reservation. And the cable television is not that good--- but I don't have cable at home for that reason anyway-- there is a channel (showtime?) that was showing porn on it (yes, I flipped back in confusion!!), probably should be blocked so children don't see it.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for two days/nights while our home was being worked on. The staff is RIDICULOUSLY nice and helpful. In fact, it sadly freaked me out since I am used to customer service being mediocre or just downright rude nowadays. The rooms, although small, had all the accommodations you would expect from a comparable hotel (ie: Holiday Inn). They are dog friendly, clearly lay out the rules for you and your pup to follow (along with a dog biscuit, nice touch!), and don't charge an arm and a leg for pet stays!!! We were really happy to find that their pet charge was only $15/per night compared to the $40 average we are used to paying. Two minor things--- the room we stayed in was very very warm and it was hard to keep it at a constant cool. This may be because it's in between two levels? Just something to think about when you are making your reservation. And the cable television is not that good--- but I don't have cable at home for that reason anyway-- there is a channel (showtime?) that was showing porn on it (yes, I flipped back in confusion!!), probably should be blocked so children don't see it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r196368492-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>196368492</t>
+  </si>
+  <si>
+    <t>03/05/2014</t>
+  </si>
+  <si>
+    <t>Below par</t>
+  </si>
+  <si>
+    <t>This hotel was not we have come to expect with Choice Hotels. Despite being a non-smoking establishment, the back door/entry closest to our room smelled of smoke. The carpet was very dingy. The room was fine enough although the mattress visibly sagged; however, it was still comfortable.The WiFi only worked if you sat in the lobby. You could not access it from the room although you could easily access Target's guest WiFi despite being a fair distance from the hotel. I mentioned this the first night and the clerk said she would report it. It was no better the 2nd night. I mentioned it on check-out and the clerk acknowledged the problem but said there was nothing that could be done about it. When I asked why not, he said it was the problem of the ISP. When I suggested that maybe they should not advertise free WiFi when it really wasn't available, the clerk became very quiet and did not respond.The breakfast was also a step down from other Choice Hotels - no hot options other than waffles and sausage. There was no hot water for tea unless you asked the staff person who brought some out from the back.It was a good price but next time, we will pay a bit more for a better experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded March 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2014</t>
+  </si>
+  <si>
+    <t>This hotel was not we have come to expect with Choice Hotels. Despite being a non-smoking establishment, the back door/entry closest to our room smelled of smoke. The carpet was very dingy. The room was fine enough although the mattress visibly sagged; however, it was still comfortable.The WiFi only worked if you sat in the lobby. You could not access it from the room although you could easily access Target's guest WiFi despite being a fair distance from the hotel. I mentioned this the first night and the clerk said she would report it. It was no better the 2nd night. I mentioned it on check-out and the clerk acknowledged the problem but said there was nothing that could be done about it. When I asked why not, he said it was the problem of the ISP. When I suggested that maybe they should not advertise free WiFi when it really wasn't available, the clerk became very quiet and did not respond.The breakfast was also a step down from other Choice Hotels - no hot options other than waffles and sausage. There was no hot water for tea unless you asked the staff person who brought some out from the back.It was a good price but next time, we will pay a bit more for a better experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r189942772-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>189942772</t>
+  </si>
+  <si>
+    <t>01/06/2014</t>
+  </si>
+  <si>
+    <t>Wonderful! I  highly suggest people stay here! The staff are great! Especially Westley and Connie! I was always greeted friendly</t>
+  </si>
+  <si>
+    <t>Wonderful! I  highly suggest people stay here! The staff are great! Especially Westley and Connie! I was always greeted friendly whether I was leaving or going. Connie went out of her way to help me in the middle of night, I was on medication that was making me very sick. I have worked at many amazing resorts, including the Four Seasons. The staff here emulates staff of an amazing resort!MoreShow less</t>
+  </si>
+  <si>
+    <t>LJComfortHR, Director of Sales at Sleep Inn Denver Tech Center, responded to this reviewResponded January 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2014</t>
+  </si>
+  <si>
+    <t>Wonderful! I  highly suggest people stay here! The staff are great! Especially Westley and Connie! I was always greeted friendly whether I was leaving or going. Connie went out of her way to help me in the middle of night, I was on medication that was making me very sick. I have worked at many amazing resorts, including the Four Seasons. The staff here emulates staff of an amazing resort!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r178845540-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>178845540</t>
+  </si>
+  <si>
+    <t>09/27/2013</t>
+  </si>
+  <si>
+    <t>Returning soon</t>
+  </si>
+  <si>
+    <t>My husband and I were very pleased with our stay.  The room was clean and comfortable and the price was great.  We are in Denver approximately every 2 months for doctor appointments/labs and scans as my husband is recovering from sinus cancer.  The hotel is located conveniently to the University hospital off of I-225 and Colfax.  Also there is a large choice of restaurants, etc.  Our only problem we had with the room is that the bed frame sticks out at the foot of the bed and we both bumped our shins on it - ouch!  Thanks again for making this stay away from home more comfortable.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r176905390-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>176905390</t>
+  </si>
+  <si>
+    <t>09/12/2013</t>
+  </si>
+  <si>
+    <t>PERFECT - Great value, clean &amp; friendly!!!!</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights recently while some work was being done on my home.  I was here about a year ago and the changes are obvious.  The new ownership / management has made great improvements to this hotel.  Super value - nice, clean room.  The lobby, pool and breakfast area have been completely renovated.  Hot items including meats have now been added to the breakfast each morning.  Beds are comfortable and the new TV's were a nice addition.  The staff is welcoming, polite and goes out of their way to assist you.  My kids loved the pool!  Great property, location and value!!!!</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r171619333-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>171619333</t>
+  </si>
+  <si>
+    <t>08/10/2013</t>
+  </si>
+  <si>
+    <t>HORRIBLE !  DIRTY !  BAD ! and ?</t>
+  </si>
+  <si>
+    <t>We have traveled all over the country and without a doubt this has to be the WORST motel in the nation !  The outside looks okay but the owners/managers are horrible.  We checked in and the first room was filthy dirty, no light bulbs and the lamps were broken.  They put us in the 2nd room and the bathroom exhaust would not turn off and it was making a bad noice.  They then put us in a third room.  No handsoap.  The charis were dirty with cheese on them from the last guests.  Toe nail clippings on the run as well as Cherrios!   I called down to explain the situation to them and the manager told us to check out because we were compaining too much.  She lied to us and said that she had made reservations for us at another motel in the Choice Hotels chain but when we arrived at that motel, we found out that she did NOT call.  She said that they had just bought it.   We have stayed at other Sleep Inns and they were great, but do NOT give this one any business.  The rooms are awful and dirty.  None of the ice machines were working.  The owners, management and staff are HORRIBLE !   Just read the other reviews here on tripadvisors and don't take just our word for it.   It is a TOTAL DUMP.  Why Choice Hotels lets them ruin their repuation is...We have traveled all over the country and without a doubt this has to be the WORST motel in the nation !  The outside looks okay but the owners/managers are horrible.  We checked in and the first room was filthy dirty, no light bulbs and the lamps were broken.  They put us in the 2nd room and the bathroom exhaust would not turn off and it was making a bad noice.  They then put us in a third room.  No handsoap.  The charis were dirty with cheese on them from the last guests.  Toe nail clippings on the run as well as Cherrios!   I called down to explain the situation to them and the manager told us to check out because we were compaining too much.  She lied to us and said that she had made reservations for us at another motel in the Choice Hotels chain but when we arrived at that motel, we found out that she did NOT call.  She said that they had just bought it.   We have stayed at other Sleep Inns and they were great, but do NOT give this one any business.  The rooms are awful and dirty.  None of the ice machines were working.  The owners, management and staff are HORRIBLE !   Just read the other reviews here on tripadvisors and don't take just our word for it.   It is a TOTAL DUMP.  Why Choice Hotels lets them ruin their repuation is beyound our thinking.   The people whoever they are who said that they were the owners and managers lie and are con artists !    This has to be the worst motel that we have ever encountered in our travels.  Am I making myself clear ?  DO NOT STAY AT THIS DUMP !!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>We have traveled all over the country and without a doubt this has to be the WORST motel in the nation !  The outside looks okay but the owners/managers are horrible.  We checked in and the first room was filthy dirty, no light bulbs and the lamps were broken.  They put us in the 2nd room and the bathroom exhaust would not turn off and it was making a bad noice.  They then put us in a third room.  No handsoap.  The charis were dirty with cheese on them from the last guests.  Toe nail clippings on the run as well as Cherrios!   I called down to explain the situation to them and the manager told us to check out because we were compaining too much.  She lied to us and said that she had made reservations for us at another motel in the Choice Hotels chain but when we arrived at that motel, we found out that she did NOT call.  She said that they had just bought it.   We have stayed at other Sleep Inns and they were great, but do NOT give this one any business.  The rooms are awful and dirty.  None of the ice machines were working.  The owners, management and staff are HORRIBLE !   Just read the other reviews here on tripadvisors and don't take just our word for it.   It is a TOTAL DUMP.  Why Choice Hotels lets them ruin their repuation is...We have traveled all over the country and without a doubt this has to be the WORST motel in the nation !  The outside looks okay but the owners/managers are horrible.  We checked in and the first room was filthy dirty, no light bulbs and the lamps were broken.  They put us in the 2nd room and the bathroom exhaust would not turn off and it was making a bad noice.  They then put us in a third room.  No handsoap.  The charis were dirty with cheese on them from the last guests.  Toe nail clippings on the run as well as Cherrios!   I called down to explain the situation to them and the manager told us to check out because we were compaining too much.  She lied to us and said that she had made reservations for us at another motel in the Choice Hotels chain but when we arrived at that motel, we found out that she did NOT call.  She said that they had just bought it.   We have stayed at other Sleep Inns and they were great, but do NOT give this one any business.  The rooms are awful and dirty.  None of the ice machines were working.  The owners, management and staff are HORRIBLE !   Just read the other reviews here on tripadvisors and don't take just our word for it.   It is a TOTAL DUMP.  Why Choice Hotels lets them ruin their repuation is beyound our thinking.   The people whoever they are who said that they were the owners and managers lie and are con artists !    This has to be the worst motel that we have ever encountered in our travels.  Am I making myself clear ?  DO NOT STAY AT THIS DUMP !!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r170788016-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>170788016</t>
+  </si>
+  <si>
+    <t>08/04/2013</t>
+  </si>
+  <si>
+    <t>Crappy old cheap hotel</t>
+  </si>
+  <si>
+    <t>It's about half the price of the other hotels within a walk. And for good reason. Hotel is dated. Rooms are small. TV is a 19 inch Zenith. It worked, so I can't complain. However, I was thirsty. There were no cups or glasses in the room. Both ice machines were broken anyway. So I tried the vending machine on my floor. No water, just sugared soft drinks. S I went down to the lobby. That machine had bottle water. And an out of order sign. Tried the other floor... Another soda-only machine. So, no drink. The A/C was turned off when I got in the room and was slow to cool down, even on high with the temp at coldest. For a single guy that just needed a bed, it was passable. For any other reason, try one of the many other choices in the area and pay the difference!MoreShow less</t>
+  </si>
+  <si>
+    <t>It's about half the price of the other hotels within a walk. And for good reason. Hotel is dated. Rooms are small. TV is a 19 inch Zenith. It worked, so I can't complain. However, I was thirsty. There were no cups or glasses in the room. Both ice machines were broken anyway. So I tried the vending machine on my floor. No water, just sugared soft drinks. S I went down to the lobby. That machine had bottle water. And an out of order sign. Tried the other floor... Another soda-only machine. So, no drink. The A/C was turned off when I got in the room and was slow to cool down, even on high with the temp at coldest. For a single guy that just needed a bed, it was passable. For any other reason, try one of the many other choices in the area and pay the difference!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d85310-r169281494-Sleep_Inn_Denver_Tech_Center-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>169281494</t>
+  </si>
+  <si>
+    <t>07/27/2013</t>
+  </si>
+  <si>
+    <t>Worst Place Ever!!!</t>
+  </si>
+  <si>
+    <t>Travelers beware!!!! Don't be fooled by the pictures and description. This was the worst place we have ever stayed at.  If it wasn't for the fact that every place I tried was booked to capacity and we needed a room, we would have left after walking into the room! Room was dirty and smelled terrible (we even got our own air fresheners because we couldn't stand it). Bathroom had unknown substance on the walls (I'm sure you can figure that out), shower door had mold and mildew.  Sheets had holes and bedspreads were wrinkly and unkempt.  The pool and pool area was also filthy and smelled bad, there was a pool light that was left attached in an open hole inside of the pool and was left resting at the pools edge (looked extremely dangerous).  No clean towels in the pool area, even after we requested them multiple times. We were promised a hot breakfast which was supposed to include waffles, sausage and egg breakfast sandwiches, scrambled eggs, etc... Instead we came out to cold cereal, a few pieces of bread to make toast, frozen biscuits, almost empty crock pot of sausage and gravy, and some juice and milk.  When I asked the man working I was told they were not serving waffles because he did not purchase the items he needed and as it was he had been out at 5:00 am purchasing the items they were serving.  Call...Travelers beware!!!! Don't be fooled by the pictures and description. This was the worst place we have ever stayed at.  If it wasn't for the fact that every place I tried was booked to capacity and we needed a room, we would have left after walking into the room! Room was dirty and smelled terrible (we even got our own air fresheners because we couldn't stand it). Bathroom had unknown substance on the walls (I'm sure you can figure that out), shower door had mold and mildew.  Sheets had holes and bedspreads were wrinkly and unkempt.  The pool and pool area was also filthy and smelled bad, there was a pool light that was left attached in an open hole inside of the pool and was left resting at the pools edge (looked extremely dangerous).  No clean towels in the pool area, even after we requested them multiple times. We were promised a hot breakfast which was supposed to include waffles, sausage and egg breakfast sandwiches, scrambled eggs, etc... Instead we came out to cold cereal, a few pieces of bread to make toast, frozen biscuits, almost empty crock pot of sausage and gravy, and some juice and milk.  When I asked the man working I was told they were not serving waffles because he did not purchase the items he needed and as it was he had been out at 5:00 am purchasing the items they were serving.  Call me crazy but if your rooms are booked to capacity and you are promising a hot breakfast shouldn't you provide that??? When I looked into the pool area it still had the same trash as the night before and still no clean towels on the shelves.  When I complained to Choice they offered to put 8000 points in my account, however since I said I didn't want to take a chance of a repeat experience they are going to send me a $50 check.  I don't feel like I should have had to pay a cent for our experience but I am trying to get the word out about this awful place.  Needless to say we will be very wary in the future especially when it comes to Choice Hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>Travelers beware!!!! Don't be fooled by the pictures and description. This was the worst place we have ever stayed at.  If it wasn't for the fact that every place I tried was booked to capacity and we needed a room, we would have left after walking into the room! Room was dirty and smelled terrible (we even got our own air fresheners because we couldn't stand it). Bathroom had unknown substance on the walls (I'm sure you can figure that out), shower door had mold and mildew.  Sheets had holes and bedspreads were wrinkly and unkempt.  The pool and pool area was also filthy and smelled bad, there was a pool light that was left attached in an open hole inside of the pool and was left resting at the pools edge (looked extremely dangerous).  No clean towels in the pool area, even after we requested them multiple times. We were promised a hot breakfast which was supposed to include waffles, sausage and egg breakfast sandwiches, scrambled eggs, etc... Instead we came out to cold cereal, a few pieces of bread to make toast, frozen biscuits, almost empty crock pot of sausage and gravy, and some juice and milk.  When I asked the man working I was told they were not serving waffles because he did not purchase the items he needed and as it was he had been out at 5:00 am purchasing the items they were serving.  Call...Travelers beware!!!! Don't be fooled by the pictures and description. This was the worst place we have ever stayed at.  If it wasn't for the fact that every place I tried was booked to capacity and we needed a room, we would have left after walking into the room! Room was dirty and smelled terrible (we even got our own air fresheners because we couldn't stand it). Bathroom had unknown substance on the walls (I'm sure you can figure that out), shower door had mold and mildew.  Sheets had holes and bedspreads were wrinkly and unkempt.  The pool and pool area was also filthy and smelled bad, there was a pool light that was left attached in an open hole inside of the pool and was left resting at the pools edge (looked extremely dangerous).  No clean towels in the pool area, even after we requested them multiple times. We were promised a hot breakfast which was supposed to include waffles, sausage and egg breakfast sandwiches, scrambled eggs, etc... Instead we came out to cold cereal, a few pieces of bread to make toast, frozen biscuits, almost empty crock pot of sausage and gravy, and some juice and milk.  When I asked the man working I was told they were not serving waffles because he did not purchase the items he needed and as it was he had been out at 5:00 am purchasing the items they were serving.  Call me crazy but if your rooms are booked to capacity and you are promising a hot breakfast shouldn't you provide that??? When I looked into the pool area it still had the same trash as the night before and still no clean towels on the shelves.  When I complained to Choice they offered to put 8000 points in my account, however since I said I didn't want to take a chance of a repeat experience they are going to send me a $50 check.  I don't feel like I should have had to pay a cent for our experience but I am trying to get the word out about this awful place.  Needless to say we will be very wary in the future especially when it comes to Choice Hotels.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2634,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2666,5722 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>107</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>117</v>
+      </c>
+      <c r="X9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>125</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>126</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>135</v>
+      </c>
+      <c r="X11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>143</v>
+      </c>
+      <c r="X12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>151</v>
+      </c>
+      <c r="O13" t="s">
+        <v>107</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>152</v>
+      </c>
+      <c r="X13" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14" t="s">
+        <v>159</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>160</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>161</v>
+      </c>
+      <c r="X14" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" t="s">
+        <v>167</v>
+      </c>
+      <c r="L15" t="s">
+        <v>168</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>160</v>
+      </c>
+      <c r="O15" t="s">
+        <v>107</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>169</v>
+      </c>
+      <c r="X15" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>173</v>
+      </c>
+      <c r="J16" t="s">
+        <v>174</v>
+      </c>
+      <c r="K16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L16" t="s">
+        <v>176</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>177</v>
+      </c>
+      <c r="O16" t="s">
+        <v>107</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>178</v>
+      </c>
+      <c r="X16" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>182</v>
+      </c>
+      <c r="J17" t="s">
+        <v>183</v>
+      </c>
+      <c r="K17" t="s">
+        <v>184</v>
+      </c>
+      <c r="L17" t="s">
+        <v>185</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>177</v>
+      </c>
+      <c r="O17" t="s">
+        <v>186</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>178</v>
+      </c>
+      <c r="X17" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>189</v>
+      </c>
+      <c r="J18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K18" t="s">
+        <v>191</v>
+      </c>
+      <c r="L18" t="s">
+        <v>192</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>177</v>
+      </c>
+      <c r="O18" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>193</v>
+      </c>
+      <c r="X18" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>197</v>
+      </c>
+      <c r="J19" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" t="s">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s">
+        <v>199</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>177</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>193</v>
+      </c>
+      <c r="X19" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" t="s">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>206</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>209</v>
+      </c>
+      <c r="J21" t="s">
+        <v>210</v>
+      </c>
+      <c r="K21" t="s">
+        <v>211</v>
+      </c>
+      <c r="L21" t="s">
+        <v>212</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>206</v>
+      </c>
+      <c r="O21" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>213</v>
+      </c>
+      <c r="X21" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>217</v>
+      </c>
+      <c r="J22" t="s">
+        <v>218</v>
+      </c>
+      <c r="K22" t="s">
+        <v>219</v>
+      </c>
+      <c r="L22" t="s">
+        <v>220</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>206</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>213</v>
+      </c>
+      <c r="X22" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>223</v>
+      </c>
+      <c r="J23" t="s">
+        <v>224</v>
+      </c>
+      <c r="K23" t="s">
+        <v>225</v>
+      </c>
+      <c r="L23" t="s">
+        <v>226</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>227</v>
+      </c>
+      <c r="O23" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>228</v>
+      </c>
+      <c r="X23" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>231</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>232</v>
+      </c>
+      <c r="J24" t="s">
+        <v>233</v>
+      </c>
+      <c r="K24" t="s">
+        <v>234</v>
+      </c>
+      <c r="L24" t="s">
+        <v>235</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>236</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>228</v>
+      </c>
+      <c r="X24" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>239</v>
+      </c>
+      <c r="J25" t="s">
+        <v>240</v>
+      </c>
+      <c r="K25" t="s">
+        <v>241</v>
+      </c>
+      <c r="L25" t="s">
+        <v>242</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>236</v>
+      </c>
+      <c r="O25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>228</v>
+      </c>
+      <c r="X25" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>244</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>245</v>
+      </c>
+      <c r="J26" t="s">
+        <v>246</v>
+      </c>
+      <c r="K26" t="s">
+        <v>247</v>
+      </c>
+      <c r="L26" t="s">
+        <v>248</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>249</v>
+      </c>
+      <c r="O26" t="s">
+        <v>107</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>250</v>
+      </c>
+      <c r="X26" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>253</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>254</v>
+      </c>
+      <c r="J27" t="s">
+        <v>255</v>
+      </c>
+      <c r="K27" t="s">
+        <v>256</v>
+      </c>
+      <c r="L27" t="s">
+        <v>257</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>258</v>
+      </c>
+      <c r="O27" t="s">
+        <v>72</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>250</v>
+      </c>
+      <c r="X27" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>260</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>261</v>
+      </c>
+      <c r="J28" t="s">
+        <v>262</v>
+      </c>
+      <c r="K28" t="s">
+        <v>263</v>
+      </c>
+      <c r="L28" t="s">
+        <v>264</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>249</v>
+      </c>
+      <c r="O28" t="s">
+        <v>72</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>265</v>
+      </c>
+      <c r="X28" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>268</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>269</v>
+      </c>
+      <c r="J29" t="s">
+        <v>270</v>
+      </c>
+      <c r="K29" t="s">
+        <v>271</v>
+      </c>
+      <c r="L29" t="s">
+        <v>272</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>273</v>
+      </c>
+      <c r="O29" t="s">
+        <v>107</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>265</v>
+      </c>
+      <c r="X29" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>275</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>276</v>
+      </c>
+      <c r="J30" t="s">
+        <v>277</v>
+      </c>
+      <c r="K30" t="s">
+        <v>278</v>
+      </c>
+      <c r="L30" t="s">
+        <v>279</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>258</v>
+      </c>
+      <c r="O30" t="s">
+        <v>107</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>265</v>
+      </c>
+      <c r="X30" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>281</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>282</v>
+      </c>
+      <c r="J31" t="s">
+        <v>283</v>
+      </c>
+      <c r="K31" t="s">
+        <v>284</v>
+      </c>
+      <c r="L31" t="s">
+        <v>285</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>273</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>265</v>
+      </c>
+      <c r="X31" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>287</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>288</v>
+      </c>
+      <c r="J32" t="s">
+        <v>289</v>
+      </c>
+      <c r="K32" t="s">
+        <v>290</v>
+      </c>
+      <c r="L32" t="s">
+        <v>291</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>258</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>292</v>
+      </c>
+      <c r="X32" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>295</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>296</v>
+      </c>
+      <c r="J33" t="s">
+        <v>297</v>
+      </c>
+      <c r="K33" t="s">
+        <v>298</v>
+      </c>
+      <c r="L33" t="s">
+        <v>299</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>273</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>300</v>
+      </c>
+      <c r="X33" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>303</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>304</v>
+      </c>
+      <c r="J34" t="s">
+        <v>305</v>
+      </c>
+      <c r="K34" t="s">
+        <v>306</v>
+      </c>
+      <c r="L34" t="s">
+        <v>307</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>258</v>
+      </c>
+      <c r="O34" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>300</v>
+      </c>
+      <c r="X34" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>309</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>310</v>
+      </c>
+      <c r="J35" t="s">
+        <v>311</v>
+      </c>
+      <c r="K35" t="s">
+        <v>312</v>
+      </c>
+      <c r="L35" t="s">
+        <v>313</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>273</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>314</v>
+      </c>
+      <c r="X35" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>317</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>318</v>
+      </c>
+      <c r="J36" t="s">
+        <v>319</v>
+      </c>
+      <c r="K36" t="s">
+        <v>320</v>
+      </c>
+      <c r="L36" t="s">
+        <v>321</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>322</v>
+      </c>
+      <c r="O36" t="s">
+        <v>186</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>323</v>
+      </c>
+      <c r="X36" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>326</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>327</v>
+      </c>
+      <c r="J37" t="s">
+        <v>328</v>
+      </c>
+      <c r="K37" t="s">
+        <v>329</v>
+      </c>
+      <c r="L37" t="s">
+        <v>330</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>273</v>
+      </c>
+      <c r="O37" t="s">
+        <v>72</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>331</v>
+      </c>
+      <c r="X37" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>334</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>335</v>
+      </c>
+      <c r="J38" t="s">
+        <v>336</v>
+      </c>
+      <c r="K38" t="s">
+        <v>337</v>
+      </c>
+      <c r="L38" t="s">
+        <v>338</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>339</v>
+      </c>
+      <c r="X38" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>342</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>343</v>
+      </c>
+      <c r="J39" t="s">
+        <v>344</v>
+      </c>
+      <c r="K39" t="s">
+        <v>345</v>
+      </c>
+      <c r="L39" t="s">
+        <v>346</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>322</v>
+      </c>
+      <c r="O39" t="s">
+        <v>72</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>339</v>
+      </c>
+      <c r="X39" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>348</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>349</v>
+      </c>
+      <c r="J40" t="s">
+        <v>350</v>
+      </c>
+      <c r="K40" t="s">
+        <v>351</v>
+      </c>
+      <c r="L40" t="s">
+        <v>352</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>353</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>339</v>
+      </c>
+      <c r="X40" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>355</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>356</v>
+      </c>
+      <c r="J41" t="s">
+        <v>357</v>
+      </c>
+      <c r="K41" t="s">
+        <v>358</v>
+      </c>
+      <c r="L41" t="s">
+        <v>359</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>353</v>
+      </c>
+      <c r="O41" t="s">
+        <v>107</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>360</v>
+      </c>
+      <c r="X41" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>363</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>364</v>
+      </c>
+      <c r="J42" t="s">
+        <v>365</v>
+      </c>
+      <c r="K42" t="s">
+        <v>366</v>
+      </c>
+      <c r="L42" t="s">
+        <v>367</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>368</v>
+      </c>
+      <c r="O42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>360</v>
+      </c>
+      <c r="X42" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>370</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>371</v>
+      </c>
+      <c r="J43" t="s">
+        <v>372</v>
+      </c>
+      <c r="K43" t="s">
+        <v>373</v>
+      </c>
+      <c r="L43" t="s">
+        <v>374</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>375</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>376</v>
+      </c>
+      <c r="X43" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>379</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>380</v>
+      </c>
+      <c r="J44" t="s">
+        <v>381</v>
+      </c>
+      <c r="K44" t="s">
+        <v>382</v>
+      </c>
+      <c r="L44" t="s">
+        <v>383</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>384</v>
+      </c>
+      <c r="O44" t="s">
+        <v>72</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>385</v>
+      </c>
+      <c r="X44" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>388</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>389</v>
+      </c>
+      <c r="J45" t="s">
+        <v>390</v>
+      </c>
+      <c r="K45" t="s">
+        <v>391</v>
+      </c>
+      <c r="L45" t="s">
+        <v>392</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>384</v>
+      </c>
+      <c r="O45" t="s">
+        <v>107</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>385</v>
+      </c>
+      <c r="X45" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>394</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>395</v>
+      </c>
+      <c r="J46" t="s">
+        <v>396</v>
+      </c>
+      <c r="K46" t="s">
+        <v>397</v>
+      </c>
+      <c r="L46" t="s">
+        <v>398</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>384</v>
+      </c>
+      <c r="O46" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>399</v>
+      </c>
+      <c r="X46" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>402</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>403</v>
+      </c>
+      <c r="J47" t="s">
+        <v>404</v>
+      </c>
+      <c r="K47" t="s">
+        <v>405</v>
+      </c>
+      <c r="L47" t="s">
+        <v>406</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>407</v>
+      </c>
+      <c r="O47" t="s">
+        <v>107</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>408</v>
+      </c>
+      <c r="X47" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>411</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>412</v>
+      </c>
+      <c r="J48" t="s">
+        <v>413</v>
+      </c>
+      <c r="K48" t="s">
+        <v>414</v>
+      </c>
+      <c r="L48" t="s">
+        <v>415</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>407</v>
+      </c>
+      <c r="O48" t="s">
+        <v>72</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>416</v>
+      </c>
+      <c r="X48" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>419</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>420</v>
+      </c>
+      <c r="J49" t="s">
+        <v>421</v>
+      </c>
+      <c r="K49" t="s">
+        <v>422</v>
+      </c>
+      <c r="L49" t="s">
+        <v>423</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>424</v>
+      </c>
+      <c r="O49" t="s">
+        <v>63</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>416</v>
+      </c>
+      <c r="X49" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>426</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>427</v>
+      </c>
+      <c r="J50" t="s">
+        <v>428</v>
+      </c>
+      <c r="K50" t="s">
+        <v>429</v>
+      </c>
+      <c r="L50" t="s">
+        <v>430</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>431</v>
+      </c>
+      <c r="O50" t="s">
+        <v>72</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>432</v>
+      </c>
+      <c r="X50" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>435</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>436</v>
+      </c>
+      <c r="J51" t="s">
+        <v>437</v>
+      </c>
+      <c r="K51" t="s">
+        <v>438</v>
+      </c>
+      <c r="L51" t="s">
+        <v>439</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>431</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>440</v>
+      </c>
+      <c r="X51" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>443</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>444</v>
+      </c>
+      <c r="J52" t="s">
+        <v>445</v>
+      </c>
+      <c r="K52" t="s">
+        <v>446</v>
+      </c>
+      <c r="L52" t="s">
+        <v>447</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>431</v>
+      </c>
+      <c r="O52" t="s">
+        <v>107</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>440</v>
+      </c>
+      <c r="X52" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>449</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>450</v>
+      </c>
+      <c r="J53" t="s">
+        <v>451</v>
+      </c>
+      <c r="K53" t="s">
+        <v>452</v>
+      </c>
+      <c r="L53" t="s">
+        <v>453</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>454</v>
+      </c>
+      <c r="O53" t="s">
+        <v>63</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>456</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>457</v>
+      </c>
+      <c r="J54" t="s">
+        <v>458</v>
+      </c>
+      <c r="K54" t="s">
+        <v>459</v>
+      </c>
+      <c r="L54" t="s">
+        <v>460</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>454</v>
+      </c>
+      <c r="O54" t="s">
+        <v>63</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>461</v>
+      </c>
+      <c r="X54" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>464</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>465</v>
+      </c>
+      <c r="J55" t="s">
+        <v>466</v>
+      </c>
+      <c r="K55" t="s">
+        <v>467</v>
+      </c>
+      <c r="L55" t="s">
+        <v>468</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>454</v>
+      </c>
+      <c r="O55" t="s">
+        <v>63</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>461</v>
+      </c>
+      <c r="X55" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>470</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>471</v>
+      </c>
+      <c r="J56" t="s">
+        <v>472</v>
+      </c>
+      <c r="K56" t="s">
+        <v>473</v>
+      </c>
+      <c r="L56" t="s">
+        <v>474</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>475</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>476</v>
+      </c>
+      <c r="X56" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>479</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>480</v>
+      </c>
+      <c r="J57" t="s">
+        <v>481</v>
+      </c>
+      <c r="K57" t="s">
+        <v>482</v>
+      </c>
+      <c r="L57" t="s">
+        <v>483</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>475</v>
+      </c>
+      <c r="O57" t="s">
+        <v>72</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>484</v>
+      </c>
+      <c r="X57" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>487</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>488</v>
+      </c>
+      <c r="J58" t="s">
+        <v>489</v>
+      </c>
+      <c r="K58" t="s">
+        <v>490</v>
+      </c>
+      <c r="L58" t="s">
+        <v>491</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>475</v>
+      </c>
+      <c r="O58" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>492</v>
+      </c>
+      <c r="X58" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>494</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>495</v>
+      </c>
+      <c r="J59" t="s">
+        <v>496</v>
+      </c>
+      <c r="K59" t="s">
+        <v>497</v>
+      </c>
+      <c r="L59" t="s">
+        <v>498</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>499</v>
+      </c>
+      <c r="X59" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>502</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>503</v>
+      </c>
+      <c r="J60" t="s">
+        <v>504</v>
+      </c>
+      <c r="K60" t="s">
+        <v>505</v>
+      </c>
+      <c r="L60" t="s">
+        <v>506</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>507</v>
+      </c>
+      <c r="X60" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>510</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>511</v>
+      </c>
+      <c r="J61" t="s">
+        <v>512</v>
+      </c>
+      <c r="K61" t="s">
+        <v>513</v>
+      </c>
+      <c r="L61" t="s">
+        <v>514</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>515</v>
+      </c>
+      <c r="O61" t="s">
+        <v>72</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>516</v>
+      </c>
+      <c r="X61" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>519</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>520</v>
+      </c>
+      <c r="J62" t="s">
+        <v>521</v>
+      </c>
+      <c r="K62" t="s">
+        <v>522</v>
+      </c>
+      <c r="L62" t="s">
+        <v>523</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>515</v>
+      </c>
+      <c r="O62" t="s">
+        <v>63</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>524</v>
+      </c>
+      <c r="X62" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>527</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>528</v>
+      </c>
+      <c r="J63" t="s">
+        <v>529</v>
+      </c>
+      <c r="K63" t="s">
+        <v>530</v>
+      </c>
+      <c r="L63" t="s">
+        <v>531</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>515</v>
+      </c>
+      <c r="O63" t="s">
+        <v>107</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>532</v>
+      </c>
+      <c r="X63" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>535</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>536</v>
+      </c>
+      <c r="J64" t="s">
+        <v>537</v>
+      </c>
+      <c r="K64" t="s">
+        <v>538</v>
+      </c>
+      <c r="L64" t="s">
+        <v>539</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>540</v>
+      </c>
+      <c r="O64" t="s">
+        <v>107</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>541</v>
+      </c>
+      <c r="X64" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>544</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>545</v>
+      </c>
+      <c r="J65" t="s">
+        <v>546</v>
+      </c>
+      <c r="K65" t="s">
+        <v>547</v>
+      </c>
+      <c r="L65" t="s">
+        <v>548</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>549</v>
+      </c>
+      <c r="O65" t="s">
+        <v>107</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>550</v>
+      </c>
+      <c r="X65" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>553</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>554</v>
+      </c>
+      <c r="J66" t="s">
+        <v>555</v>
+      </c>
+      <c r="K66" t="s">
+        <v>556</v>
+      </c>
+      <c r="L66" t="s">
+        <v>557</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>558</v>
+      </c>
+      <c r="O66" t="s">
+        <v>63</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>550</v>
+      </c>
+      <c r="X66" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>560</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>561</v>
+      </c>
+      <c r="J67" t="s">
+        <v>562</v>
+      </c>
+      <c r="K67" t="s">
+        <v>563</v>
+      </c>
+      <c r="L67" t="s">
+        <v>564</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>549</v>
+      </c>
+      <c r="O67" t="s">
+        <v>107</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>565</v>
+      </c>
+      <c r="X67" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>568</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>569</v>
+      </c>
+      <c r="J68" t="s">
+        <v>570</v>
+      </c>
+      <c r="K68" t="s">
+        <v>571</v>
+      </c>
+      <c r="L68" t="s">
+        <v>572</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>573</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>574</v>
+      </c>
+      <c r="X68" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>577</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>578</v>
+      </c>
+      <c r="J69" t="s">
+        <v>570</v>
+      </c>
+      <c r="K69" t="s">
+        <v>579</v>
+      </c>
+      <c r="L69" t="s">
+        <v>580</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>573</v>
+      </c>
+      <c r="O69" t="s">
+        <v>186</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>574</v>
+      </c>
+      <c r="X69" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>582</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>583</v>
+      </c>
+      <c r="J70" t="s">
+        <v>584</v>
+      </c>
+      <c r="K70" t="s">
+        <v>585</v>
+      </c>
+      <c r="L70" t="s">
+        <v>586</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>587</v>
+      </c>
+      <c r="O70" t="s">
+        <v>107</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>588</v>
+      </c>
+      <c r="X70" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>591</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>592</v>
+      </c>
+      <c r="J71" t="s">
+        <v>593</v>
+      </c>
+      <c r="K71" t="s">
+        <v>594</v>
+      </c>
+      <c r="L71" t="s">
+        <v>595</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>596</v>
+      </c>
+      <c r="O71" t="s">
+        <v>107</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>597</v>
+      </c>
+      <c r="X71" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>600</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>601</v>
+      </c>
+      <c r="J72" t="s">
+        <v>602</v>
+      </c>
+      <c r="K72" t="s">
+        <v>603</v>
+      </c>
+      <c r="L72" t="s">
+        <v>604</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>596</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>605</v>
+      </c>
+      <c r="X72" t="s">
+        <v>606</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>608</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>609</v>
+      </c>
+      <c r="J73" t="s">
+        <v>610</v>
+      </c>
+      <c r="K73" t="s">
+        <v>611</v>
+      </c>
+      <c r="L73" t="s">
+        <v>612</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>613</v>
+      </c>
+      <c r="O73" t="s">
+        <v>107</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>614</v>
+      </c>
+      <c r="X73" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>617</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>618</v>
+      </c>
+      <c r="J74" t="s">
+        <v>619</v>
+      </c>
+      <c r="K74" t="s">
+        <v>620</v>
+      </c>
+      <c r="L74" t="s">
+        <v>621</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>613</v>
+      </c>
+      <c r="O74" t="s">
+        <v>63</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>622</v>
+      </c>
+      <c r="X74" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>625</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>626</v>
+      </c>
+      <c r="J75" t="s">
+        <v>627</v>
+      </c>
+      <c r="K75" t="s">
+        <v>628</v>
+      </c>
+      <c r="L75" t="s">
+        <v>629</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>630</v>
+      </c>
+      <c r="X75" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>633</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>634</v>
+      </c>
+      <c r="J76" t="s">
+        <v>635</v>
+      </c>
+      <c r="K76" t="s">
+        <v>636</v>
+      </c>
+      <c r="L76" t="s">
+        <v>637</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>613</v>
+      </c>
+      <c r="O76" t="s">
+        <v>107</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>2</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>638</v>
+      </c>
+      <c r="X76" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>641</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>642</v>
+      </c>
+      <c r="J77" t="s">
+        <v>643</v>
+      </c>
+      <c r="K77" t="s">
+        <v>644</v>
+      </c>
+      <c r="L77" t="s">
+        <v>645</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>646</v>
+      </c>
+      <c r="O77" t="s">
+        <v>72</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>647</v>
+      </c>
+      <c r="X77" t="s">
+        <v>648</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>650</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>651</v>
+      </c>
+      <c r="J78" t="s">
+        <v>652</v>
+      </c>
+      <c r="K78" t="s">
+        <v>653</v>
+      </c>
+      <c r="L78" t="s">
+        <v>654</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>655</v>
+      </c>
+      <c r="O78" t="s">
+        <v>107</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>656</v>
+      </c>
+      <c r="X78" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>659</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>660</v>
+      </c>
+      <c r="J79" t="s">
+        <v>661</v>
+      </c>
+      <c r="K79" t="s">
+        <v>662</v>
+      </c>
+      <c r="L79" t="s">
+        <v>663</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>646</v>
+      </c>
+      <c r="O79" t="s">
+        <v>107</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>664</v>
+      </c>
+      <c r="X79" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>667</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>668</v>
+      </c>
+      <c r="J80" t="s">
+        <v>669</v>
+      </c>
+      <c r="K80" t="s">
+        <v>670</v>
+      </c>
+      <c r="L80" t="s">
+        <v>671</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>672</v>
+      </c>
+      <c r="X80" t="s">
+        <v>673</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>675</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>676</v>
+      </c>
+      <c r="J81" t="s">
+        <v>677</v>
+      </c>
+      <c r="K81" t="s">
+        <v>678</v>
+      </c>
+      <c r="L81" t="s">
+        <v>679</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>680</v>
+      </c>
+      <c r="O81" t="s">
+        <v>63</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>672</v>
+      </c>
+      <c r="X81" t="s">
+        <v>673</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>682</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>683</v>
+      </c>
+      <c r="J82" t="s">
+        <v>684</v>
+      </c>
+      <c r="K82" t="s">
+        <v>685</v>
+      </c>
+      <c r="L82" t="s">
+        <v>686</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>680</v>
+      </c>
+      <c r="O82" t="s">
+        <v>107</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>2</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>687</v>
+      </c>
+      <c r="X82" t="s">
+        <v>688</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>690</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>691</v>
+      </c>
+      <c r="J83" t="s">
+        <v>692</v>
+      </c>
+      <c r="K83" t="s">
+        <v>693</v>
+      </c>
+      <c r="L83" t="s">
+        <v>694</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>695</v>
+      </c>
+      <c r="X83" t="s">
+        <v>696</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>698</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>699</v>
+      </c>
+      <c r="J84" t="s">
+        <v>700</v>
+      </c>
+      <c r="K84" t="s">
+        <v>701</v>
+      </c>
+      <c r="L84" t="s">
+        <v>702</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>703</v>
+      </c>
+      <c r="O84" t="s">
+        <v>107</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>704</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>705</v>
+      </c>
+      <c r="J85" t="s">
+        <v>706</v>
+      </c>
+      <c r="K85" t="s">
+        <v>707</v>
+      </c>
+      <c r="L85" t="s">
+        <v>708</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>709</v>
+      </c>
+      <c r="O85" t="s">
+        <v>63</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>710</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>711</v>
+      </c>
+      <c r="J86" t="s">
+        <v>712</v>
+      </c>
+      <c r="K86" t="s">
+        <v>713</v>
+      </c>
+      <c r="L86" t="s">
+        <v>714</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>715</v>
+      </c>
+      <c r="O86" t="s">
+        <v>107</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>717</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>718</v>
+      </c>
+      <c r="J87" t="s">
+        <v>719</v>
+      </c>
+      <c r="K87" t="s">
+        <v>720</v>
+      </c>
+      <c r="L87" t="s">
+        <v>721</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>709</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>37641</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>723</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>724</v>
+      </c>
+      <c r="J88" t="s">
+        <v>725</v>
+      </c>
+      <c r="K88" t="s">
+        <v>726</v>
+      </c>
+      <c r="L88" t="s">
+        <v>727</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>715</v>
+      </c>
+      <c r="O88" t="s">
+        <v>63</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>728</v>
       </c>
     </row>
   </sheetData>
